--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Tag</t>
   </si>
@@ -102,6 +102,169 @@
 Sessions beim Training statt.
 Item2Item-similarity ist momentan
 alles was beachtet wird</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thema besprochen, Aktuelle Todos:
+1) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trainingsdaten generieren.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tool bauen, das 
+Trainingsdaten generieren kann aus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openstreetmap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>googlemaps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Einfaches Modell bauen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (zb </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ConvNet),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> das diese Segmentierung macht
+3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abstract schreiben</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Motivation), 500-800 Wörter  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -135,21 +298,93 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Satellitenbild 1000px * 1000px +
-Labels                1000px * 1000px</t>
+      <t xml:space="preserve">Satellitenbild 1000px * 1000px +
+Labels                1000px * 1000px
+</t>
     </r>
-  </si>
-  <si>
-    <t>Treffen mit Alexander D.
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tensorflo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w Dee</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">p CNN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(CIFAR-10 classification )
+(https://www.tensorflow.org/tutorials/deep_cnn)</t>
+    </r>
+  </si>
+  <si>
+    <t>1) Herausfinden, wie man die Features interpretiert,
+die in der osm-Datei von OpenStreetView stehen (http://wiki.openstreetmap.org/wiki/Map_Features#Primary_features)
+2) Einfaches conv-Net bauen zur image segmentierung(https://www.youtube.com/watch?v=mynJtLhhcXk)
+3) Wichtiges Wissen zu conv-nets in Tensorflow
+aufschreiben und ins git ziehen
+4) Tool suchen für die Behandlung der Polygonzüge (Ziehen der Pixels aus den Polygonzügen z.B java gis (http://www.geotools.org/))
+5) Das mal zum laufen bekommen und ausprobieren(https://www.kaggle.com/amanbh/visualize-polygons-and-image-data)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Treffen mit Alexander D.
 1) Neues Thema: Segmentation Task um Satellitenbilder zu Karten zu machen, die Flüsse, Straßen, etc. (ca 12 Klassen) klassifizieren
-2) Todos und Quellen aufschreiben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thema besprochen, Aktuelle Todos:
-1) Trainingsdaten generieren. Tool bauen, das 
-Trainingsdaten generieren kann aus openstreetmap und googlemaps
-2) Einfaches Modell bauen (zb ConvNet), das diese Segmentierung macht
+Daheim alleine:
+2) Todos und Quellen aufschreiben, ImageFile(3-Band) downloaden, qgis installiert
+3) Python-Programm geschrieben, das Karte um gegeben Lat/Long Punkt von googlemaps downloaded. Gleiches wäre mit openstreetmap möglich
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -159,7 +394,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +455,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -253,7 +521,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,6 +558,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -576,8 +850,8 @@
   <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,19 +1364,24 @@
       <c r="C51" s="9"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43074</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="11" t="s">
+      <c r="B52" s="7">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1146,7 +1425,7 @@
       <c r="D57" s="3"/>
       <c r="G57">
         <f t="shared" ref="G57" si="5">SUM(B51:B57)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -349,15 +349,6 @@
     </r>
   </si>
   <si>
-    <t>1) Herausfinden, wie man die Features interpretiert,
-die in der osm-Datei von OpenStreetView stehen (http://wiki.openstreetmap.org/wiki/Map_Features#Primary_features)
-2) Einfaches conv-Net bauen zur image segmentierung(https://www.youtube.com/watch?v=mynJtLhhcXk)
-3) Wichtiges Wissen zu conv-nets in Tensorflow
-aufschreiben und ins git ziehen
-4) Tool suchen für die Behandlung der Polygonzüge (Ziehen der Pixels aus den Polygonzügen z.B java gis (http://www.geotools.org/))
-5) Das mal zum laufen bekommen und ausprobieren(https://www.kaggle.com/amanbh/visualize-polygons-and-image-data)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -386,11 +377,21 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>1) Herausfinden, wie man die Features interpretiert,
+die in der osm-Datei von OpenStreetView stehen (http://wiki.openstreetmap.org/wiki/Map_Features#Primary_features)
+2) Einfaches conv-Net bauen zur image segmentierung(https://www.youtube.com/watch?v=mynJtLhhcXk)
+3) Wichtiges Wissen zu conv-nets in Tensorflow
+aufschreiben und ins git ziehen
+4) Tool suchen für die Behandlung der Polygonzüge (Ziehen der Pixels aus den Polygonzügen z.B java gis (http://www.geotools.org/))
+5) Das mal zum laufen bekommen und ausprobieren(https://www.kaggle.com/amanbh/visualize-polygons-and-image-data)
+6) Mit gdal am sample tiff rumspielen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
@@ -849,9 +850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1365,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43074</v>
       </c>
@@ -1372,13 +1373,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>23</v>

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Tag</t>
   </si>
@@ -102,169 +102,6 @@
 Sessions beim Training statt.
 Item2Item-similarity ist momentan
 alles was beachtet wird</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Thema besprochen, Aktuelle Todos:
-1) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Trainingsdaten generieren.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tool bauen, das 
-Trainingsdaten generieren kann aus </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>openstreetmap</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> und </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>googlemaps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Einfaches Modell bauen</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (zb </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ConvNet),</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> das diese Segmentierung macht
-3) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Abstract schreiben</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Motivation), 500-800 Wörter  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -378,24 +215,241 @@
     </r>
   </si>
   <si>
-    <t>1) Herausfinden, wie man die Features interpretiert,
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Thema besprochen, Aktuelle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Todos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+1) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trainingsdaten generieren.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tool bauen, das 
+Trainingsdaten generieren kann aus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openstreetmap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>googlemaps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Einfaches Modell bauen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (zb </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ConvNet),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> das diese Segmentierung macht
+3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abstract schreiben</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Motivation), 500-800 Wörter  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Einfaches conv-Net gebaut zur image segmentierung (MNIST conv net von sentdex )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Herausfinden, wie man die Features interpretiert,
 die in der osm-Datei von OpenStreetView stehen (http://wiki.openstreetmap.org/wiki/Map_Features#Primary_features)
-2) Einfaches conv-Net bauen zur image segmentierung(https://www.youtube.com/watch?v=mynJtLhhcXk)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2) Einfaches conv-Net bauen zur image segmentierung(https://www.youtube.com/watch?v=mynJtLhhcXk)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 3) Wichtiges Wissen zu conv-nets in Tensorflow
 aufschreiben und ins git ziehen
 4) Tool suchen für die Behandlung der Polygonzüge (Ziehen der Pixels aus den Polygonzügen z.B java gis (http://www.geotools.org/))
 5) Das mal zum laufen bekommen und ausprobieren(https://www.kaggle.com/amanbh/visualize-polygons-and-image-data)
 6) Mit gdal am sample tiff rumspielen</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/get_started/mnist/pros
+https://www.youtube.com/watch?v=mynJtLhhcXk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +543,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -522,7 +593,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -564,6 +635,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,9 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1109,7 @@
       <c r="A14" s="1">
         <v>43036</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="17">
         <v>5</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1049,7 +1126,7 @@
       <c r="A15" s="1">
         <v>43037</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="9"/>
       <c r="D15" s="3"/>
       <c r="G15">
@@ -1061,7 +1138,7 @@
       <c r="A16" s="1">
         <v>43038</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="9"/>
       <c r="D16" s="3"/>
     </row>
@@ -1069,7 +1146,7 @@
       <c r="A17" s="1">
         <v>43039</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="9"/>
       <c r="D17" s="3"/>
     </row>
@@ -1077,7 +1154,7 @@
       <c r="A18" s="1">
         <v>43040</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="9"/>
       <c r="D18" s="3"/>
     </row>
@@ -1085,7 +1162,7 @@
       <c r="A19" s="1">
         <v>43041</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="9"/>
       <c r="D19" s="3"/>
     </row>
@@ -1093,7 +1170,7 @@
       <c r="A20" s="1">
         <v>43042</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="9"/>
       <c r="D20" s="3"/>
     </row>
@@ -1101,7 +1178,7 @@
       <c r="A21" s="1">
         <v>43043</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="9"/>
       <c r="D21" s="3"/>
     </row>
@@ -1109,7 +1186,7 @@
       <c r="A22" s="1">
         <v>43044</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="9"/>
       <c r="D22" s="3"/>
       <c r="G22">
@@ -1121,7 +1198,7 @@
       <c r="A23" s="1">
         <v>43045</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="9"/>
       <c r="D23" s="3"/>
     </row>
@@ -1129,7 +1206,7 @@
       <c r="A24" s="1">
         <v>43046</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="9"/>
       <c r="D24" s="3"/>
     </row>
@@ -1137,7 +1214,7 @@
       <c r="A25" s="1">
         <v>43047</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="9"/>
       <c r="D25" s="3"/>
     </row>
@@ -1145,7 +1222,7 @@
       <c r="A26" s="1">
         <v>43048</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="9"/>
       <c r="D26" s="3"/>
     </row>
@@ -1153,7 +1230,7 @@
       <c r="A27" s="1">
         <v>43049</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="9"/>
       <c r="D27" s="3"/>
     </row>
@@ -1161,7 +1238,7 @@
       <c r="A28" s="1">
         <v>43050</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="9"/>
       <c r="D28" s="3"/>
     </row>
@@ -1169,7 +1246,7 @@
       <c r="A29" s="1">
         <v>43051</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="9"/>
       <c r="D29" s="3"/>
       <c r="G29">
@@ -1181,7 +1258,7 @@
       <c r="A30" s="1">
         <v>43052</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="9"/>
       <c r="D30" s="3"/>
     </row>
@@ -1189,7 +1266,7 @@
       <c r="A31" s="1">
         <v>43053</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="9"/>
       <c r="D31" s="3"/>
     </row>
@@ -1197,7 +1274,7 @@
       <c r="A32" s="1">
         <v>43054</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="9"/>
       <c r="D32" s="3"/>
     </row>
@@ -1205,7 +1282,7 @@
       <c r="A33" s="1">
         <v>43055</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="9"/>
       <c r="D33" s="3"/>
     </row>
@@ -1213,7 +1290,7 @@
       <c r="A34" s="1">
         <v>43056</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="9"/>
       <c r="D34" s="3"/>
     </row>
@@ -1221,7 +1298,7 @@
       <c r="A35" s="1">
         <v>43057</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="9"/>
       <c r="D35" s="3"/>
     </row>
@@ -1229,7 +1306,7 @@
       <c r="A36" s="1">
         <v>43058</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="9"/>
       <c r="D36" s="3"/>
       <c r="G36">
@@ -1241,7 +1318,7 @@
       <c r="A37" s="1">
         <v>43059</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="9"/>
       <c r="D37" s="3"/>
     </row>
@@ -1249,7 +1326,7 @@
       <c r="A38" s="1">
         <v>43060</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="9"/>
       <c r="D38" s="3"/>
     </row>
@@ -1257,7 +1334,7 @@
       <c r="A39" s="1">
         <v>43061</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="9"/>
       <c r="D39" s="3"/>
     </row>
@@ -1265,7 +1342,7 @@
       <c r="A40" s="1">
         <v>43062</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="9"/>
       <c r="D40" s="3"/>
     </row>
@@ -1273,7 +1350,7 @@
       <c r="A41" s="1">
         <v>43063</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="9"/>
       <c r="D41" s="3"/>
     </row>
@@ -1281,7 +1358,7 @@
       <c r="A42" s="1">
         <v>43064</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="9"/>
       <c r="D42" s="3"/>
     </row>
@@ -1289,7 +1366,7 @@
       <c r="A43" s="1">
         <v>43065</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="9"/>
       <c r="D43" s="3"/>
       <c r="G43">
@@ -1301,7 +1378,7 @@
       <c r="A44" s="1">
         <v>43066</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="9"/>
       <c r="D44" s="3"/>
     </row>
@@ -1309,7 +1386,7 @@
       <c r="A45" s="1">
         <v>43067</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="9"/>
       <c r="D45" s="3"/>
     </row>
@@ -1317,7 +1394,7 @@
       <c r="A46" s="1">
         <v>43068</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="9"/>
       <c r="D46" s="3"/>
     </row>
@@ -1325,7 +1402,7 @@
       <c r="A47" s="1">
         <v>43069</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="9"/>
       <c r="D47" s="3"/>
     </row>
@@ -1333,7 +1410,7 @@
       <c r="A48" s="1">
         <v>43070</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="9"/>
       <c r="D48" s="3"/>
     </row>
@@ -1341,7 +1418,7 @@
       <c r="A49" s="1">
         <v>43071</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="9"/>
       <c r="D49" s="3"/>
     </row>
@@ -1349,7 +1426,7 @@
       <c r="A50" s="1">
         <v>43072</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="9"/>
       <c r="D50" s="3"/>
       <c r="G50">
@@ -1361,7 +1438,7 @@
       <c r="A51" s="1">
         <v>43073</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="9"/>
       <c r="D51" s="3"/>
     </row>
@@ -1369,43 +1446,50 @@
       <c r="A52" s="1">
         <v>43074</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="17">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="E52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43075</v>
       </c>
-      <c r="B53" s="7"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="9"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43076</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
+      <c r="B54" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="D54" s="3"/>
+      <c r="F54" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43077</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="9"/>
       <c r="D55" s="3"/>
     </row>
@@ -1413,7 +1497,7 @@
       <c r="A56" s="1">
         <v>43078</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="9"/>
       <c r="D56" s="3"/>
     </row>
@@ -1421,19 +1505,19 @@
       <c r="A57" s="1">
         <v>43079</v>
       </c>
-      <c r="B57" s="7"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="9"/>
       <c r="D57" s="3"/>
       <c r="G57">
         <f t="shared" ref="G57" si="5">SUM(B51:B57)</f>
-        <v>8</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43080</v>
       </c>
-      <c r="B58" s="7"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="9"/>
       <c r="D58" s="3"/>
     </row>
@@ -1441,7 +1525,7 @@
       <c r="A59" s="1">
         <v>43081</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="9"/>
       <c r="D59" s="3"/>
     </row>
@@ -1449,7 +1533,7 @@
       <c r="A60" s="1">
         <v>43082</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="9"/>
       <c r="D60" s="3"/>
     </row>
@@ -1457,7 +1541,7 @@
       <c r="A61" s="1">
         <v>43083</v>
       </c>
-      <c r="B61" s="7"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="9"/>
       <c r="D61" s="3"/>
     </row>
@@ -1465,7 +1549,7 @@
       <c r="A62" s="1">
         <v>43084</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="9"/>
       <c r="D62" s="3"/>
     </row>
@@ -1473,7 +1557,7 @@
       <c r="A63" s="1">
         <v>43085</v>
       </c>
-      <c r="B63" s="7"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="9"/>
       <c r="D63" s="3"/>
     </row>
@@ -1481,7 +1565,7 @@
       <c r="A64" s="1">
         <v>43086</v>
       </c>
-      <c r="B64" s="7"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="9"/>
       <c r="D64" s="3"/>
       <c r="G64">
@@ -1493,7 +1577,7 @@
       <c r="A65" s="1">
         <v>43087</v>
       </c>
-      <c r="B65" s="7"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="9"/>
       <c r="D65" s="3"/>
     </row>
@@ -1501,7 +1585,7 @@
       <c r="A66" s="1">
         <v>43088</v>
       </c>
-      <c r="B66" s="7"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="9"/>
       <c r="D66" s="3"/>
     </row>
@@ -1509,7 +1593,7 @@
       <c r="A67" s="1">
         <v>43089</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="9"/>
       <c r="D67" s="3"/>
     </row>
@@ -1517,7 +1601,7 @@
       <c r="A68" s="1">
         <v>43090</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="9"/>
       <c r="D68" s="3"/>
     </row>
@@ -1525,7 +1609,7 @@
       <c r="A69" s="1">
         <v>43091</v>
       </c>
-      <c r="B69" s="7"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="9"/>
       <c r="D69" s="3"/>
     </row>
@@ -1533,7 +1617,7 @@
       <c r="A70" s="1">
         <v>43092</v>
       </c>
-      <c r="B70" s="7"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="9"/>
       <c r="D70" s="3"/>
     </row>
@@ -1541,7 +1625,7 @@
       <c r="A71" s="1">
         <v>43093</v>
       </c>
-      <c r="B71" s="7"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="9"/>
       <c r="D71" s="3"/>
       <c r="G71">
@@ -1553,7 +1637,7 @@
       <c r="A72" s="1">
         <v>43094</v>
       </c>
-      <c r="B72" s="7"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="9"/>
       <c r="D72" s="3"/>
     </row>
@@ -1561,7 +1645,7 @@
       <c r="A73" s="1">
         <v>43095</v>
       </c>
-      <c r="B73" s="7"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="9"/>
       <c r="D73" s="3"/>
     </row>
@@ -1569,7 +1653,7 @@
       <c r="A74" s="1">
         <v>43096</v>
       </c>
-      <c r="B74" s="7"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="9"/>
       <c r="D74" s="3"/>
     </row>
@@ -1577,7 +1661,7 @@
       <c r="A75" s="1">
         <v>43097</v>
       </c>
-      <c r="B75" s="7"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="9"/>
       <c r="D75" s="3"/>
     </row>
@@ -1585,7 +1669,7 @@
       <c r="A76" s="1">
         <v>43098</v>
       </c>
-      <c r="B76" s="7"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="9"/>
       <c r="D76" s="3"/>
     </row>
@@ -1593,7 +1677,7 @@
       <c r="A77" s="1">
         <v>43099</v>
       </c>
-      <c r="B77" s="7"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="9"/>
       <c r="D77" s="3"/>
     </row>
@@ -1601,7 +1685,7 @@
       <c r="A78" s="1">
         <v>43100</v>
       </c>
-      <c r="B78" s="7"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="9"/>
       <c r="D78" s="3"/>
       <c r="G78">
@@ -1613,7 +1697,7 @@
       <c r="A79" s="1">
         <v>43101</v>
       </c>
-      <c r="B79" s="7"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="9"/>
       <c r="D79" s="3"/>
     </row>
@@ -1621,7 +1705,7 @@
       <c r="A80" s="1">
         <v>43102</v>
       </c>
-      <c r="B80" s="7"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="7"/>
       <c r="D80" s="3"/>
     </row>
@@ -1629,7 +1713,7 @@
       <c r="A81" s="1">
         <v>43103</v>
       </c>
-      <c r="B81" s="7"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="7"/>
       <c r="D81" s="3"/>
     </row>
@@ -1637,7 +1721,7 @@
       <c r="A82" s="1">
         <v>43104</v>
       </c>
-      <c r="B82" s="7"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="7"/>
       <c r="D82" s="3"/>
     </row>
@@ -1645,7 +1729,7 @@
       <c r="A83" s="1">
         <v>43105</v>
       </c>
-      <c r="B83" s="7"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="7"/>
       <c r="D83" s="3"/>
     </row>
@@ -1653,7 +1737,7 @@
       <c r="A84" s="1">
         <v>43106</v>
       </c>
-      <c r="B84" s="7"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="7"/>
       <c r="D84" s="3"/>
     </row>
@@ -1661,7 +1745,7 @@
       <c r="A85" s="1">
         <v>43107</v>
       </c>
-      <c r="B85" s="7"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="7"/>
       <c r="D85" s="3"/>
       <c r="G85">
@@ -1673,7 +1757,7 @@
       <c r="A86" s="1">
         <v>43108</v>
       </c>
-      <c r="B86" s="7"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="7"/>
       <c r="D86" s="3"/>
     </row>
@@ -1681,7 +1765,7 @@
       <c r="A87" s="1">
         <v>43109</v>
       </c>
-      <c r="B87" s="7"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="7"/>
       <c r="D87" s="3"/>
     </row>
@@ -1689,7 +1773,7 @@
       <c r="A88" s="1">
         <v>43110</v>
       </c>
-      <c r="B88" s="7"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="7"/>
       <c r="D88" s="3"/>
     </row>
@@ -1697,7 +1781,7 @@
       <c r="A89" s="1">
         <v>43111</v>
       </c>
-      <c r="B89" s="7"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="7"/>
       <c r="D89" s="3"/>
     </row>
@@ -1705,7 +1789,7 @@
       <c r="A90" s="1">
         <v>43112</v>
       </c>
-      <c r="B90" s="7"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="7"/>
       <c r="D90" s="3"/>
     </row>
@@ -1713,7 +1797,7 @@
       <c r="A91" s="1">
         <v>43113</v>
       </c>
-      <c r="B91" s="7"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="7"/>
       <c r="D91" s="3"/>
     </row>
@@ -1721,7 +1805,7 @@
       <c r="A92" s="1">
         <v>43114</v>
       </c>
-      <c r="B92" s="7"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="7"/>
       <c r="D92" s="3"/>
       <c r="G92">
@@ -1733,7 +1817,7 @@
       <c r="A93" s="1">
         <v>43115</v>
       </c>
-      <c r="B93" s="7"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="7"/>
       <c r="D93" s="3"/>
     </row>
@@ -1741,7 +1825,7 @@
       <c r="A94" s="1">
         <v>43116</v>
       </c>
-      <c r="B94" s="7"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="7"/>
       <c r="D94" s="3"/>
     </row>
@@ -1749,7 +1833,7 @@
       <c r="A95" s="1">
         <v>43117</v>
       </c>
-      <c r="B95" s="7"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="7"/>
       <c r="D95" s="3"/>
     </row>
@@ -1757,7 +1841,7 @@
       <c r="A96" s="1">
         <v>43118</v>
       </c>
-      <c r="B96" s="7"/>
+      <c r="B96" s="17"/>
       <c r="C96" s="7"/>
       <c r="D96" s="3"/>
     </row>
@@ -1765,7 +1849,7 @@
       <c r="A97" s="1">
         <v>43119</v>
       </c>
-      <c r="B97" s="7"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="7"/>
       <c r="D97" s="3"/>
     </row>
@@ -1773,7 +1857,7 @@
       <c r="A98" s="1">
         <v>43120</v>
       </c>
-      <c r="B98" s="7"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="7"/>
       <c r="D98" s="3"/>
     </row>
@@ -1781,7 +1865,7 @@
       <c r="A99" s="1">
         <v>43121</v>
       </c>
-      <c r="B99" s="7"/>
+      <c r="B99" s="17"/>
       <c r="C99" s="7"/>
       <c r="D99" s="3"/>
       <c r="G99">
@@ -1793,7 +1877,7 @@
       <c r="A100" s="1">
         <v>43122</v>
       </c>
-      <c r="B100" s="7"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="7"/>
       <c r="D100" s="3"/>
     </row>
@@ -1801,7 +1885,7 @@
       <c r="A101" s="1">
         <v>43123</v>
       </c>
-      <c r="B101" s="7"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="7"/>
       <c r="D101" s="3"/>
     </row>
@@ -1809,7 +1893,7 @@
       <c r="A102" s="1">
         <v>43124</v>
       </c>
-      <c r="B102" s="7"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="7"/>
       <c r="D102" s="3"/>
     </row>
@@ -1817,7 +1901,7 @@
       <c r="A103" s="1">
         <v>43125</v>
       </c>
-      <c r="B103" s="7"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="7"/>
       <c r="D103" s="3"/>
     </row>
@@ -1825,7 +1909,7 @@
       <c r="A104" s="1">
         <v>43126</v>
       </c>
-      <c r="B104" s="7"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="7"/>
       <c r="D104" s="3"/>
     </row>
@@ -1833,7 +1917,7 @@
       <c r="A105" s="1">
         <v>43127</v>
       </c>
-      <c r="B105" s="7"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="7"/>
       <c r="D105" s="3"/>
     </row>
@@ -1841,7 +1925,7 @@
       <c r="A106" s="1">
         <v>43128</v>
       </c>
-      <c r="B106" s="7"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="7"/>
       <c r="D106" s="3"/>
       <c r="G106">
@@ -1853,7 +1937,7 @@
       <c r="A107" s="1">
         <v>43129</v>
       </c>
-      <c r="B107" s="7"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="7"/>
       <c r="D107" s="3"/>
     </row>
@@ -1861,7 +1945,7 @@
       <c r="A108" s="1">
         <v>43130</v>
       </c>
-      <c r="B108" s="7"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="7"/>
       <c r="D108" s="3"/>
     </row>
@@ -1869,7 +1953,7 @@
       <c r="A109" s="1">
         <v>43131</v>
       </c>
-      <c r="B109" s="7"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="7"/>
       <c r="D109" s="3"/>
     </row>
@@ -1877,7 +1961,7 @@
       <c r="A110" s="1">
         <v>43132</v>
       </c>
-      <c r="B110" s="7"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="7"/>
       <c r="D110" s="3"/>
     </row>
@@ -1885,7 +1969,7 @@
       <c r="A111" s="1">
         <v>43133</v>
       </c>
-      <c r="B111" s="7"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="7"/>
       <c r="D111" s="3"/>
     </row>
@@ -1893,7 +1977,7 @@
       <c r="A112" s="1">
         <v>43134</v>
       </c>
-      <c r="B112" s="7"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="7"/>
       <c r="D112" s="3"/>
     </row>
@@ -1901,7 +1985,7 @@
       <c r="A113" s="1">
         <v>43135</v>
       </c>
-      <c r="B113" s="7"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="7"/>
       <c r="D113" s="3"/>
       <c r="G113">
@@ -1913,7 +1997,7 @@
       <c r="A114" s="1">
         <v>43136</v>
       </c>
-      <c r="B114" s="7"/>
+      <c r="B114" s="17"/>
       <c r="C114" s="7"/>
       <c r="D114" s="3"/>
     </row>
@@ -1921,7 +2005,7 @@
       <c r="A115" s="1">
         <v>43137</v>
       </c>
-      <c r="B115" s="7"/>
+      <c r="B115" s="17"/>
       <c r="C115" s="7"/>
       <c r="D115" s="3"/>
     </row>
@@ -1929,7 +2013,7 @@
       <c r="A116" s="1">
         <v>43138</v>
       </c>
-      <c r="B116" s="7"/>
+      <c r="B116" s="17"/>
       <c r="C116" s="7"/>
       <c r="D116" s="3"/>
     </row>
@@ -1937,7 +2021,7 @@
       <c r="A117" s="1">
         <v>43139</v>
       </c>
-      <c r="B117" s="7"/>
+      <c r="B117" s="17"/>
       <c r="C117" s="7"/>
       <c r="D117" s="3"/>
     </row>
@@ -1945,7 +2029,7 @@
       <c r="A118" s="1">
         <v>43140</v>
       </c>
-      <c r="B118" s="7"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="7"/>
       <c r="D118" s="3"/>
     </row>
@@ -1953,7 +2037,7 @@
       <c r="A119" s="1">
         <v>43141</v>
       </c>
-      <c r="B119" s="7"/>
+      <c r="B119" s="17"/>
       <c r="C119" s="7"/>
       <c r="D119" s="3"/>
     </row>
@@ -1961,7 +2045,7 @@
       <c r="A120" s="1">
         <v>43142</v>
       </c>
-      <c r="B120" s="7"/>
+      <c r="B120" s="17"/>
       <c r="C120" s="7"/>
       <c r="D120" s="3"/>
       <c r="G120">
@@ -1973,7 +2057,7 @@
       <c r="A121" s="1">
         <v>43143</v>
       </c>
-      <c r="B121" s="7"/>
+      <c r="B121" s="17"/>
       <c r="C121" s="7"/>
       <c r="D121" s="3"/>
     </row>
@@ -1981,7 +2065,7 @@
       <c r="A122" s="1">
         <v>43144</v>
       </c>
-      <c r="B122" s="7"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="7"/>
       <c r="D122" s="3"/>
     </row>
@@ -1989,7 +2073,7 @@
       <c r="A123" s="1">
         <v>43145</v>
       </c>
-      <c r="B123" s="7"/>
+      <c r="B123" s="17"/>
       <c r="C123" s="7"/>
       <c r="D123" s="3"/>
     </row>
@@ -1997,7 +2081,7 @@
       <c r="A124" s="1">
         <v>43146</v>
       </c>
-      <c r="B124" s="7"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="7"/>
       <c r="D124" s="3"/>
     </row>
@@ -2005,7 +2089,7 @@
       <c r="A125" s="1">
         <v>43147</v>
       </c>
-      <c r="B125" s="7"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="7"/>
       <c r="D125" s="3"/>
     </row>
@@ -2013,7 +2097,7 @@
       <c r="A126" s="1">
         <v>43148</v>
       </c>
-      <c r="B126" s="7"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="7"/>
       <c r="D126" s="3"/>
     </row>
@@ -2021,7 +2105,7 @@
       <c r="A127" s="1">
         <v>43149</v>
       </c>
-      <c r="B127" s="7"/>
+      <c r="B127" s="17"/>
       <c r="C127" s="7"/>
       <c r="D127" s="3"/>
       <c r="G127">
@@ -2033,7 +2117,7 @@
       <c r="A128" s="1">
         <v>43150</v>
       </c>
-      <c r="B128" s="7"/>
+      <c r="B128" s="17"/>
       <c r="C128" s="7"/>
       <c r="D128" s="3"/>
     </row>
@@ -2041,7 +2125,7 @@
       <c r="A129" s="1">
         <v>43151</v>
       </c>
-      <c r="B129" s="7"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="7"/>
       <c r="D129" s="3"/>
     </row>
@@ -2049,7 +2133,7 @@
       <c r="A130" s="1">
         <v>43152</v>
       </c>
-      <c r="B130" s="7"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="7"/>
       <c r="D130" s="3"/>
     </row>
@@ -2057,7 +2141,7 @@
       <c r="A131" s="1">
         <v>43153</v>
       </c>
-      <c r="B131" s="7"/>
+      <c r="B131" s="17"/>
       <c r="C131" s="7"/>
       <c r="D131" s="3"/>
     </row>
@@ -2065,7 +2149,7 @@
       <c r="A132" s="1">
         <v>43154</v>
       </c>
-      <c r="B132" s="7"/>
+      <c r="B132" s="17"/>
       <c r="C132" s="7"/>
       <c r="D132" s="3"/>
     </row>
@@ -2073,7 +2157,7 @@
       <c r="A133" s="1">
         <v>43155</v>
       </c>
-      <c r="B133" s="7"/>
+      <c r="B133" s="17"/>
       <c r="C133" s="7"/>
       <c r="D133" s="3"/>
     </row>
@@ -2081,7 +2165,7 @@
       <c r="A134" s="1">
         <v>43156</v>
       </c>
-      <c r="B134" s="7"/>
+      <c r="B134" s="17"/>
       <c r="C134" s="7"/>
       <c r="D134" s="3"/>
       <c r="G134">
@@ -2093,7 +2177,7 @@
       <c r="A135" s="1">
         <v>43157</v>
       </c>
-      <c r="B135" s="7"/>
+      <c r="B135" s="17"/>
       <c r="C135" s="7"/>
       <c r="D135" s="3"/>
     </row>
@@ -2101,7 +2185,7 @@
       <c r="A136" s="1">
         <v>43158</v>
       </c>
-      <c r="B136" s="7"/>
+      <c r="B136" s="17"/>
       <c r="C136" s="7"/>
       <c r="D136" s="3"/>
     </row>
@@ -2109,7 +2193,7 @@
       <c r="A137" s="1">
         <v>43159</v>
       </c>
-      <c r="B137" s="7"/>
+      <c r="B137" s="17"/>
       <c r="C137" s="7"/>
       <c r="D137" s="3"/>
     </row>
@@ -2117,7 +2201,7 @@
       <c r="A138" s="1">
         <v>43160</v>
       </c>
-      <c r="B138" s="7"/>
+      <c r="B138" s="17"/>
       <c r="C138" s="7"/>
       <c r="D138" s="3"/>
     </row>
@@ -2125,7 +2209,7 @@
       <c r="A139" s="1">
         <v>43161</v>
       </c>
-      <c r="B139" s="7"/>
+      <c r="B139" s="17"/>
       <c r="C139" s="7"/>
       <c r="D139" s="3"/>
     </row>
@@ -2133,7 +2217,7 @@
       <c r="A140" s="1">
         <v>43162</v>
       </c>
-      <c r="B140" s="7"/>
+      <c r="B140" s="17"/>
       <c r="C140" s="7"/>
       <c r="D140" s="3"/>
     </row>
@@ -2141,7 +2225,7 @@
       <c r="A141" s="1">
         <v>43163</v>
       </c>
-      <c r="B141" s="7"/>
+      <c r="B141" s="17"/>
       <c r="C141" s="7"/>
       <c r="D141" s="3"/>
       <c r="G141">
@@ -2153,7 +2237,7 @@
       <c r="A142" s="1">
         <v>43164</v>
       </c>
-      <c r="B142" s="7"/>
+      <c r="B142" s="17"/>
       <c r="C142" s="7"/>
       <c r="D142" s="3"/>
     </row>
@@ -2161,7 +2245,7 @@
       <c r="A143" s="1">
         <v>43165</v>
       </c>
-      <c r="B143" s="7"/>
+      <c r="B143" s="17"/>
       <c r="C143" s="7"/>
       <c r="D143" s="3"/>
     </row>
@@ -2169,7 +2253,7 @@
       <c r="A144" s="1">
         <v>43166</v>
       </c>
-      <c r="B144" s="7"/>
+      <c r="B144" s="17"/>
       <c r="C144" s="7"/>
       <c r="D144" s="3"/>
     </row>
@@ -2177,7 +2261,7 @@
       <c r="A145" s="1">
         <v>43167</v>
       </c>
-      <c r="B145" s="7"/>
+      <c r="B145" s="17"/>
       <c r="C145" s="7"/>
       <c r="D145" s="3"/>
     </row>
@@ -2185,7 +2269,7 @@
       <c r="A146" s="1">
         <v>43168</v>
       </c>
-      <c r="B146" s="7"/>
+      <c r="B146" s="17"/>
       <c r="C146" s="7"/>
       <c r="D146" s="3"/>
     </row>
@@ -2193,7 +2277,7 @@
       <c r="A147" s="1">
         <v>43169</v>
       </c>
-      <c r="B147" s="7"/>
+      <c r="B147" s="17"/>
       <c r="C147" s="7"/>
       <c r="D147" s="3"/>
     </row>
@@ -2201,7 +2285,7 @@
       <c r="A148" s="1">
         <v>43170</v>
       </c>
-      <c r="B148" s="7"/>
+      <c r="B148" s="17"/>
       <c r="C148" s="7"/>
       <c r="D148" s="3"/>
       <c r="G148">
@@ -2213,7 +2297,7 @@
       <c r="A149" s="1">
         <v>43171</v>
       </c>
-      <c r="B149" s="7"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="7"/>
       <c r="D149" s="3"/>
     </row>
@@ -2221,7 +2305,7 @@
       <c r="A150" s="1">
         <v>43172</v>
       </c>
-      <c r="B150" s="7"/>
+      <c r="B150" s="17"/>
       <c r="C150" s="7"/>
       <c r="D150" s="3"/>
     </row>
@@ -2229,7 +2313,7 @@
       <c r="A151" s="1">
         <v>43173</v>
       </c>
-      <c r="B151" s="7"/>
+      <c r="B151" s="17"/>
       <c r="C151" s="7"/>
       <c r="D151" s="3"/>
     </row>
@@ -2237,7 +2321,7 @@
       <c r="A152" s="1">
         <v>43174</v>
       </c>
-      <c r="B152" s="7"/>
+      <c r="B152" s="17"/>
       <c r="C152" s="7"/>
       <c r="D152" s="3"/>
     </row>
@@ -2245,7 +2329,7 @@
       <c r="A153" s="1">
         <v>43175</v>
       </c>
-      <c r="B153" s="7"/>
+      <c r="B153" s="17"/>
       <c r="C153" s="7"/>
       <c r="D153" s="3"/>
     </row>
@@ -2253,7 +2337,7 @@
       <c r="A154" s="1">
         <v>43176</v>
       </c>
-      <c r="B154" s="7"/>
+      <c r="B154" s="17"/>
       <c r="C154" s="7"/>
       <c r="D154" s="3"/>
     </row>
@@ -2261,7 +2345,7 @@
       <c r="A155" s="1">
         <v>43177</v>
       </c>
-      <c r="B155" s="7"/>
+      <c r="B155" s="17"/>
       <c r="C155" s="7"/>
       <c r="D155" s="3"/>
       <c r="G155">
@@ -2273,7 +2357,7 @@
       <c r="A156" s="1">
         <v>43178</v>
       </c>
-      <c r="B156" s="7"/>
+      <c r="B156" s="17"/>
       <c r="C156" s="7"/>
       <c r="D156" s="3"/>
     </row>
@@ -2281,7 +2365,7 @@
       <c r="A157" s="1">
         <v>43179</v>
       </c>
-      <c r="B157" s="7"/>
+      <c r="B157" s="17"/>
       <c r="C157" s="7"/>
       <c r="D157" s="3"/>
     </row>
@@ -2289,7 +2373,7 @@
       <c r="A158" s="1">
         <v>43180</v>
       </c>
-      <c r="B158" s="7"/>
+      <c r="B158" s="17"/>
       <c r="C158" s="7"/>
       <c r="D158" s="3"/>
     </row>
@@ -2297,7 +2381,7 @@
       <c r="A159" s="1">
         <v>43181</v>
       </c>
-      <c r="B159" s="7"/>
+      <c r="B159" s="17"/>
       <c r="C159" s="7"/>
       <c r="D159" s="3"/>
     </row>
@@ -2305,7 +2389,7 @@
       <c r="A160" s="1">
         <v>43182</v>
       </c>
-      <c r="B160" s="7"/>
+      <c r="B160" s="17"/>
       <c r="C160" s="7"/>
       <c r="D160" s="3"/>
     </row>
@@ -2313,7 +2397,7 @@
       <c r="A161" s="1">
         <v>43183</v>
       </c>
-      <c r="B161" s="7"/>
+      <c r="B161" s="17"/>
       <c r="C161" s="7"/>
       <c r="D161" s="3"/>
     </row>
@@ -2321,7 +2405,7 @@
       <c r="A162" s="1">
         <v>43184</v>
       </c>
-      <c r="B162" s="7"/>
+      <c r="B162" s="17"/>
       <c r="C162" s="7"/>
       <c r="D162" s="3"/>
       <c r="G162">
@@ -2333,7 +2417,7 @@
       <c r="A163" s="1">
         <v>43185</v>
       </c>
-      <c r="B163" s="7"/>
+      <c r="B163" s="17"/>
       <c r="C163" s="7"/>
       <c r="D163" s="3"/>
     </row>
@@ -2341,7 +2425,7 @@
       <c r="A164" s="1">
         <v>43186</v>
       </c>
-      <c r="B164" s="7"/>
+      <c r="B164" s="17"/>
       <c r="C164" s="7"/>
       <c r="D164" s="3"/>
     </row>
@@ -2349,7 +2433,7 @@
       <c r="A165" s="1">
         <v>43187</v>
       </c>
-      <c r="B165" s="7"/>
+      <c r="B165" s="17"/>
       <c r="C165" s="7"/>
       <c r="D165" s="3"/>
     </row>
@@ -2357,7 +2441,7 @@
       <c r="A166" s="1">
         <v>43188</v>
       </c>
-      <c r="B166" s="7"/>
+      <c r="B166" s="17"/>
       <c r="C166" s="7"/>
       <c r="D166" s="3"/>
     </row>
@@ -2365,7 +2449,7 @@
       <c r="A167" s="1">
         <v>43189</v>
       </c>
-      <c r="B167" s="7"/>
+      <c r="B167" s="17"/>
       <c r="C167" s="7"/>
       <c r="D167" s="3"/>
     </row>
@@ -2373,7 +2457,7 @@
       <c r="A168" s="1">
         <v>43190</v>
       </c>
-      <c r="B168" s="7"/>
+      <c r="B168" s="17"/>
       <c r="C168" s="7"/>
       <c r="D168" s="3"/>
     </row>
@@ -2381,7 +2465,7 @@
       <c r="A169" s="1">
         <v>43191</v>
       </c>
-      <c r="B169" s="7"/>
+      <c r="B169" s="17"/>
       <c r="C169" s="7"/>
       <c r="D169" s="3"/>
       <c r="G169">
@@ -2393,7 +2477,7 @@
       <c r="A170" s="1">
         <v>43192</v>
       </c>
-      <c r="B170" s="7"/>
+      <c r="B170" s="17"/>
       <c r="C170" s="7"/>
       <c r="D170" s="3"/>
     </row>

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Tag</t>
   </si>
@@ -440,6 +440,25 @@
   <si>
     <t>https://www.tensorflow.org/get_started/mnist/pros
 https://www.youtube.com/watch?v=mynJtLhhcXk</t>
+  </si>
+  <si>
+    <t>Mit wichtigen python packages für die test-Daten-Bearbeitung
+beschäftigt:
+numpy, shapely, cv2, gdal, matplotlib</t>
+  </si>
+  <si>
+    <t>1) Visualisieren von Polygonflächen (schwarz=nix, weiß=gesuchte_Klasse)
+2) Plotten von Satelliten_Image und PolygonImage mit Klasseneinfärbung zusammen
+3) Grundlegendes Arbeiten mit Tiff-Dateien (Öffnen/Bearbeiten/Visualisieren/Parameter auslesen)</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/lopuhin
+/full-pipeline-demo-poly-pixels-ml-poly</t>
+  </si>
+  <si>
+    <t>1) Mal versuchen den Code von dieser Session zu strukturieren
+2) Ein kleines Conv-Net bauen dass was mit den tiffs anfängt
+3) Das ganze Prozedere für die anderen Klassen (2-12) machen</t>
   </si>
 </sst>
 </file>
@@ -449,7 +468,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,8 +579,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,8 +605,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -587,13 +619,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -643,8 +691,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Ausgabe" xfId="3" builtinId="21"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -928,8 +983,8 @@
   <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1536,7 @@
         <v>25</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1489,17 +1544,31 @@
       <c r="A55" s="1">
         <v>43077</v>
       </c>
-      <c r="B55" s="17"/>
+      <c r="B55" s="17">
+        <v>2</v>
+      </c>
       <c r="C55" s="9"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43078</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="3"/>
+      <c r="B56" s="17">
+        <v>6</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -1510,7 +1579,7 @@
       <c r="D57" s="3"/>
       <c r="G57">
         <f t="shared" ref="G57" si="5">SUM(B51:B57)</f>
-        <v>9.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Tag</t>
   </si>
@@ -411,6 +411,28 @@
     <t>1) Ein kleines Conv-Net bauen dass was mit 
 den tiffs anfängt
 2) Mal schauen wie man alle verfügbaren Klassen auf einmal in einen Plot bekommt</t>
+  </si>
+  <si>
+    <t>Semantic Segmentation Video 1/2</t>
+  </si>
+  <si>
+    <t>Semantic Segmentation Video 2/2</t>
+  </si>
+  <si>
+    <t>Detection and Segmentation Video: 
+https://www.youtube.com/watch?v=nDPWywWRIRo
+Überblick Architekturen für Semantic Segmentation:
+https://github.com/arahusky/Tensorflow-Segmentation/blob/master/project_summary.pdf</t>
+  </si>
+  <si>
+    <t>Paper ins Repo</t>
+  </si>
+  <si>
+    <t>Paper lesen!
+Testen FCN impl
+https://github.com/MarvinTeichmann/tensorflow-fcn
+SegNet impl
+https://github.com/tkuanlun350/Tensorflow-SegNet</t>
   </si>
 </sst>
 </file>
@@ -557,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -593,6 +615,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -878,7 +901,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,17 +1045,33 @@
       <c r="A9" s="1">
         <v>43080</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43081</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1073,9 +1112,9 @@
       <c r="B15" s="9"/>
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
-      <c r="G15">
-        <f t="shared" ref="G15" si="1">SUM(B9:B15)</f>
-        <v>0</v>
+      <c r="G15" s="13">
+        <f>SUM(B9:B15)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1134,7 +1173,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="G22">
-        <f t="shared" ref="G22" si="2">SUM(B16:B22)</f>
+        <f t="shared" ref="G22" si="1">SUM(B16:B22)</f>
         <v>0</v>
       </c>
     </row>
@@ -1194,7 +1233,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="2"/>
       <c r="G29">
-        <f t="shared" ref="G29" si="3">SUM(B23:B29)</f>
+        <f t="shared" ref="G29" si="2">SUM(B23:B29)</f>
         <v>0</v>
       </c>
     </row>
@@ -1254,7 +1293,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="G36">
-        <f t="shared" ref="G36" si="4">SUM(B30:B36)</f>
+        <f t="shared" ref="G36" si="3">SUM(B30:B36)</f>
         <v>0</v>
       </c>
     </row>
@@ -1314,7 +1353,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="2"/>
       <c r="G43">
-        <f t="shared" ref="G43" si="5">SUM(B37:B43)</f>
+        <f t="shared" ref="G43" si="4">SUM(B37:B43)</f>
         <v>0</v>
       </c>
     </row>
@@ -1374,7 +1413,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="2"/>
       <c r="G50">
-        <f t="shared" ref="G50" si="6">SUM(B44:B50)</f>
+        <f t="shared" ref="G50" si="5">SUM(B44:B50)</f>
         <v>0</v>
       </c>
     </row>
@@ -1434,7 +1473,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="2"/>
       <c r="G57">
-        <f t="shared" ref="G57" si="7">SUM(B51:B57)</f>
+        <f t="shared" ref="G57" si="6">SUM(B51:B57)</f>
         <v>0</v>
       </c>
     </row>
@@ -1494,7 +1533,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="2"/>
       <c r="G64">
-        <f t="shared" ref="G64" si="8">SUM(B58:B64)</f>
+        <f t="shared" ref="G64" si="7">SUM(B58:B64)</f>
         <v>0</v>
       </c>
     </row>
@@ -1554,7 +1593,7 @@
       <c r="C71" s="3"/>
       <c r="D71" s="2"/>
       <c r="G71">
-        <f t="shared" ref="G71" si="9">SUM(B65:B71)</f>
+        <f t="shared" ref="G71" si="8">SUM(B65:B71)</f>
         <v>0</v>
       </c>
     </row>
@@ -1614,7 +1653,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="2"/>
       <c r="G78">
-        <f t="shared" ref="G78" si="10">SUM(B72:B78)</f>
+        <f t="shared" ref="G78" si="9">SUM(B72:B78)</f>
         <v>0</v>
       </c>
     </row>
@@ -1674,7 +1713,7 @@
       <c r="C85" s="3"/>
       <c r="D85" s="2"/>
       <c r="G85">
-        <f t="shared" ref="G85" si="11">SUM(B79:B85)</f>
+        <f t="shared" ref="G85" si="10">SUM(B79:B85)</f>
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1773,7 @@
       <c r="C92" s="3"/>
       <c r="D92" s="2"/>
       <c r="G92">
-        <f t="shared" ref="G92" si="12">SUM(B86:B92)</f>
+        <f t="shared" ref="G92" si="11">SUM(B86:B92)</f>
         <v>0</v>
       </c>
     </row>
@@ -1794,7 +1833,7 @@
       <c r="C99" s="3"/>
       <c r="D99" s="2"/>
       <c r="G99">
-        <f t="shared" ref="G99" si="13">SUM(B93:B99)</f>
+        <f t="shared" ref="G99" si="12">SUM(B93:B99)</f>
         <v>0</v>
       </c>
     </row>
@@ -1974,7 +2013,7 @@
       <c r="C120" s="3"/>
       <c r="D120" s="2"/>
       <c r="G120">
-        <f t="shared" ref="G120" si="14">SUM(B114:B120)</f>
+        <f t="shared" ref="G120" si="13">SUM(B114:B120)</f>
         <v>0</v>
       </c>
     </row>

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Tag</t>
   </si>
@@ -434,11 +434,19 @@
 SegNet impl
 https://github.com/tkuanlun350/Tensorflow-SegNet</t>
   </si>
+  <si>
+    <t>Recherchen wie man wie openstreetmap umgeht:
+Polygone leider nur von bestimmten Elementen vorhanden</t>
+  </si>
+  <si>
+    <t>nützlicher code
+https://github.com/KaiserP/MasterThesis/blob/master/DownloadImages/berlin/code/download_city_data.py</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
@@ -579,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -616,6 +624,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -901,7 +912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,13 +1092,19 @@
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43083</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1114,7 +1131,7 @@
       <c r="D15" s="2"/>
       <c r="G15" s="13">
         <f>SUM(B9:B15)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Tag</t>
   </si>
@@ -441,6 +441,12 @@
   <si>
     <t>nützlicher code
 https://github.com/KaiserP/MasterThesis/blob/master/DownloadImages/berlin/code/download_city_data.py</t>
+  </si>
+  <si>
+    <t>1) Recherche: Aus openstreetmap polygone extrahieren</t>
+  </si>
+  <si>
+    <t>http://blog.rtwilson.com/how-to-convert-osm-waypoints-defining-polygons-into-shapefile/</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +560,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -583,11 +597,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -627,9 +642,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -911,8 +931,8 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,8 +1139,13 @@
         <v>43085</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2043,7 +2068,10 @@
       <c r="D121" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Tag</t>
   </si>
@@ -448,11 +448,19 @@
   <si>
     <t>http://blog.rtwilson.com/how-to-convert-osm-waypoints-defining-polygons-into-shapefile/</t>
   </si>
+  <si>
+    <t>holt tiles in geojson:
+https://mapzen.com/pricing/#vector-tiles</t>
+  </si>
+  <si>
+    <t>Rechereche: Wie man aus openstreetmap polygone bekommen könnte
+Dienstleister der dies ca anbietet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
@@ -932,7 +940,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,13 +1134,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43084</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="2"/>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1156,7 +1171,7 @@
       <c r="D15" s="2"/>
       <c r="G15" s="13">
         <f>SUM(B9:B15)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Tag</t>
   </si>
@@ -443,9 +443,6 @@
 https://github.com/KaiserP/MasterThesis/blob/master/DownloadImages/berlin/code/download_city_data.py</t>
   </si>
   <si>
-    <t>1) Recherche: Aus openstreetmap polygone extrahieren</t>
-  </si>
-  <si>
     <t>http://blog.rtwilson.com/how-to-convert-osm-waypoints-defining-polygons-into-shapefile/</t>
   </si>
   <si>
@@ -455,6 +452,20 @@
   <si>
     <t>Rechereche: Wie man aus openstreetmap polygone bekommen könnte
 Dienstleister der dies ca anbietet</t>
+  </si>
+  <si>
+    <t>1) Recherche: Aus openstreetmap polygone extrahieren
+2) Problem bemerkt: Polygone ausmalen bei den kaggle bildern
+klappt nicht so gut.Entweder überlappen sich Polygone oder Löcher im Polygon sind das Problem.(Im Moment lass ich die einfach)
+3) Wie wandelt man osm coords in Pixel coords um?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zu 2):     cv2.fillPoly(img_mask, exteriors, int(poly_type))        cv2.fillPoly(img_mask, interiors, 0)  #blöd
+Eigentlich sollten die inneren Polygone mit den Werten ausgemalt werden die vorher drin waren, aber ka wie das geht. Polygone überlappen sich auch zum Teil. Dh. es muss eine Reihenfolge festgelegt werden, nach der die Klassen in aufsteigender Priorität geordnet sind um die Überschneidungen wie gewünscht zu machen.
+Das passiert zB. bei Fahrzeugen vs Straße oder Bäume mit Straße o.Ä.
+Zu 3) Osm coord latlong min/max:
+bbox = left,bottom,right,top
+bbox = min Longitude , min Latitude , max Longitude , max Latitude </t>
   </si>
 </sst>
 </file>
@@ -464,7 +475,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,8 +587,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,8 +614,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -604,11 +628,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -650,12 +690,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Ausgabe" xfId="3" builtinId="21"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -940,7 +981,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +989,7 @@
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="58.5703125" customWidth="1"/>
-    <col min="4" max="4" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="46.85546875" customWidth="1"/>
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
@@ -1039,7 +1080,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43078</v>
       </c>
@@ -1059,7 +1100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43079</v>
       </c>
@@ -1120,7 +1161,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43083</v>
       </c>
@@ -1142,24 +1183,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43085</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="F14" s="16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1171,7 +1216,7 @@
       <c r="D15" s="2"/>
       <c r="G15" s="13">
         <f>SUM(B9:B15)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Tag</t>
   </si>
@@ -460,12 +460,42 @@
 3) Wie wandelt man osm coords in Pixel coords um?</t>
   </si>
   <si>
-    <t xml:space="preserve">Zu 2):     cv2.fillPoly(img_mask, exteriors, int(poly_type))        cv2.fillPoly(img_mask, interiors, 0)  #blöd
+    <r>
+      <t xml:space="preserve">Zu 2):     cv2.fillPoly(img_mask, exteriors, int(poly_type))        cv2.fillPoly(img_mask, interiors, 0)  #blöd
 Eigentlich sollten die inneren Polygone mit den Werten ausgemalt werden die vorher drin waren, aber ka wie das geht. Polygone überlappen sich auch zum Teil. Dh. es muss eine Reihenfolge festgelegt werden, nach der die Klassen in aufsteigender Priorität geordnet sind um die Überschneidungen wie gewünscht zu machen.
 Das passiert zB. bei Fahrzeugen vs Straße oder Bäume mit Straße o.Ä.
 Zu 3) Osm coord latlong min/max:
 bbox = left,bottom,right,top
-bbox = min Longitude , min Latitude , max Longitude , max Latitude </t>
+bbox = min Longitude , min Latitude , max Longitude , max Latitude 
+Code dazu ins Repo gepusht.Allerdings gibts sehr viele Ausreiser mit negativen Coords (liegt daran dass viele Punkte außerhalb der bbox liegen... </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WARUM??</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>kostet leider geld :/
+und
+Das Problem mit den Straßen_zu_Polygonen löst das nicht</t>
   </si>
 </sst>
 </file>
@@ -980,8 +1010,8 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,17 +1210,19 @@
         <v>43084</v>
       </c>
       <c r="B13" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43085</v>
       </c>
@@ -1216,7 +1248,7 @@
       <c r="D15" s="2"/>
       <c r="G15" s="13">
         <f>SUM(B9:B15)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Tag</t>
   </si>
@@ -496,6 +496,20 @@
     <t>kostet leider geld :/
 und
 Das Problem mit den Straßen_zu_Polygonen löst das nicht</t>
+  </si>
+  <si>
+    <t>1) Frage 3 geklärt (...gibts sehr viele Ausreiser mit negativen Coords (liegt daran dass viele Punkte außerhalb der bbox liegen)
+2) Elemente aus OSM-file plotten</t>
+  </si>
+  <si>
+    <t>Zu 1) Sind einfach Punkte von elementen die in den Bildausschnitt 
+hineinlappen. Damit die Umwandlung klappt hab ich alle Polygone mit 
+solchen ungültigen Punkten einfach weggelassen
+Zu 2) Habe erfolgreich Gebäude extrahiert und geplottet</t>
+  </si>
+  <si>
+    <t>Ideen für Straßenpolygone überlegen.
+Noch interessant: Wasser, Flüße, Seen, Bäume/Wald</t>
   </si>
 </sst>
 </file>
@@ -680,7 +694,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -723,6 +737,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1010,8 +1027,8 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,20 +1252,30 @@
       <c r="D14" s="16" t="s">
         <v>31</v>
       </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43086</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="9">
+        <v>8</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G15" s="13">
         <f>SUM(B9:B15)</f>
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -1027,8 +1027,8 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Tag</t>
   </si>
@@ -510,6 +511,41 @@
   <si>
     <t>Ideen für Straßenpolygone überlegen.
 Noch interessant: Wasser, Flüße, Seen, Bäume/Wald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Training und Evaluation implementieren mit TF/Keras/?? </t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t>   </t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Fertgestellt Am</t>
+  </si>
+  <si>
+    <t>Erhalten Am</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>1) Daten sammeln,   
+Hast du da schon einen Crawler geschrieben,
+der automatisiert Daten von GMaps + OSM runterlädt?</t>
+  </si>
+  <si>
+    <t>2) Preprocessing    
+Weitere Klassen hinzufügen (außer Straßen) / Löcher in Polygonen füllen</t>
+  </si>
+  <si>
+    <t>3) Model  bauen
+Einfaches Segmentierungsmodell raussuchen (Paper Recherche!!) 
+und implementieren bzw. fertigs Modell verwenden</t>
   </si>
 </sst>
 </file>
@@ -519,7 +555,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +675,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -694,7 +744,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -740,6 +790,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1026,9 +1087,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,4 +2254,409 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="48.75" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="19">
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="23"/>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" ht="48.75" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="19">
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="48.75" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="19">
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="C20" s="21"/>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="21"/>
+    </row>
+    <row r="22" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="19">
+        <v>43087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C30" s="21"/>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C31" s="21"/>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C32" s="21"/>
+    </row>
+    <row r="33" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C33" s="21"/>
+    </row>
+    <row r="34" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C34" s="21"/>
+    </row>
+    <row r="35" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C36" s="21"/>
+    </row>
+    <row r="37" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C37" s="21"/>
+    </row>
+    <row r="38" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C38" s="21"/>
+    </row>
+    <row r="39" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C39" s="21"/>
+    </row>
+    <row r="40" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C40" s="21"/>
+    </row>
+    <row r="41" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C41" s="21"/>
+    </row>
+    <row r="42" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C42" s="21"/>
+    </row>
+    <row r="43" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C43" s="21"/>
+    </row>
+    <row r="44" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C44" s="21"/>
+    </row>
+    <row r="45" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C45" s="21"/>
+    </row>
+    <row r="46" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C46" s="21"/>
+    </row>
+    <row r="47" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C47" s="21"/>
+    </row>
+    <row r="48" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C48" s="21"/>
+    </row>
+    <row r="49" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C49" s="21"/>
+    </row>
+    <row r="50" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C50" s="21"/>
+    </row>
+    <row r="51" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C51" s="21"/>
+    </row>
+    <row r="52" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C52" s="21"/>
+    </row>
+    <row r="53" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C53" s="21"/>
+    </row>
+    <row r="54" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C54" s="21"/>
+    </row>
+    <row r="55" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C55" s="21"/>
+    </row>
+    <row r="56" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C56" s="21"/>
+    </row>
+    <row r="57" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C57" s="21"/>
+    </row>
+    <row r="58" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C58" s="21"/>
+    </row>
+    <row r="59" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C59" s="21"/>
+    </row>
+    <row r="60" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C60" s="21"/>
+    </row>
+    <row r="61" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C61" s="21"/>
+    </row>
+    <row r="62" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C62" s="21"/>
+    </row>
+    <row r="63" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C63" s="21"/>
+    </row>
+    <row r="64" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C64" s="21"/>
+    </row>
+    <row r="65" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C65" s="21"/>
+    </row>
+    <row r="66" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C66" s="21"/>
+    </row>
+    <row r="67" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C67" s="21"/>
+    </row>
+    <row r="68" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C68" s="21"/>
+    </row>
+    <row r="69" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C69" s="21"/>
+    </row>
+    <row r="70" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C70" s="21"/>
+    </row>
+    <row r="71" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C71" s="21"/>
+    </row>
+    <row r="72" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C72" s="21"/>
+    </row>
+    <row r="73" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C73" s="21"/>
+    </row>
+    <row r="74" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C74" s="21"/>
+    </row>
+    <row r="75" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C75" s="21"/>
+    </row>
+    <row r="76" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C76" s="21"/>
+    </row>
+    <row r="77" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C77" s="21"/>
+    </row>
+    <row r="78" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C78" s="21"/>
+    </row>
+    <row r="79" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C79" s="21"/>
+    </row>
+    <row r="80" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C80" s="21"/>
+    </row>
+    <row r="81" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C81" s="21"/>
+    </row>
+    <row r="82" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C82" s="21"/>
+    </row>
+    <row r="83" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C83" s="21"/>
+    </row>
+    <row r="84" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C84" s="21"/>
+    </row>
+    <row r="85" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C85" s="21"/>
+    </row>
+    <row r="86" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C86" s="21"/>
+    </row>
+    <row r="87" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C87" s="21"/>
+    </row>
+    <row r="88" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C88" s="21"/>
+    </row>
+    <row r="89" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C89" s="21"/>
+    </row>
+    <row r="90" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C90" s="21"/>
+    </row>
+    <row r="91" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C91" s="21"/>
+    </row>
+    <row r="92" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C93" s="21"/>
+    </row>
+    <row r="94" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C94" s="21"/>
+    </row>
+    <row r="95" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C95" s="21"/>
+    </row>
+    <row r="96" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C96" s="21"/>
+    </row>
+    <row r="97" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C97" s="21"/>
+    </row>
+    <row r="98" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C98" s="21"/>
+    </row>
+    <row r="99" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C99" s="21"/>
+    </row>
+    <row r="100" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C100" s="21"/>
+    </row>
+    <row r="101" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C101" s="21"/>
+    </row>
+    <row r="102" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C102" s="21"/>
+    </row>
+    <row r="103" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C103" s="21"/>
+    </row>
+    <row r="104" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C104" s="21"/>
+    </row>
+    <row r="105" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C105" s="21"/>
+    </row>
+    <row r="106" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C106" s="21"/>
+    </row>
+    <row r="107" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C107" s="21"/>
+    </row>
+    <row r="108" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C108" s="21"/>
+    </row>
+    <row r="109" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C109" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Tag</t>
   </si>
@@ -546,6 +546,10 @@
     <t>3) Model  bauen
 Einfaches Segmentierungsmodell raussuchen (Paper Recherche!!) 
 und implementieren bzw. fertigs Modell verwenden</t>
+  </si>
+  <si>
+    <t>Problem: Zoom levels stimmen offensichtlich
+ nicht überein bei osm und googlemaps</t>
   </si>
 </sst>
 </file>
@@ -1087,9 +1091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,6 +2301,9 @@
       <c r="C2" s="19">
         <v>43087</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -10,7 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Tag</t>
   </si>
@@ -551,11 +551,17 @@
     <t>Problem: Zoom levels stimmen offensichtlich
  nicht überein bei osm und googlemaps</t>
   </si>
+  <si>
+    <t>https://stackoverflow.com/a/37121993/8862202</t>
+  </si>
+  <si>
+    <t>Zoom googlemap pngs damit sie das gleiche zeigen wie osm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
@@ -1091,9 +1097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1363,12 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2254,9 +2265,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F14" r:id="rId1"/>
+    <hyperlink ref="E17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Tag</t>
   </si>
@@ -552,20 +552,47 @@
  nicht überein bei osm und googlemaps</t>
   </si>
   <si>
-    <t>https://stackoverflow.com/a/37121993/8862202</t>
-  </si>
-  <si>
-    <t>Zoom googlemap pngs damit sie das gleiche zeigen wie osm</t>
+    <t>Idee 1:
+ Zoom googlemap pngs damit sie das gleiche zeigen wie osm</t>
+  </si>
+  <si>
+    <t>Idee 1 grob implementiert. 
+Problem 1.) Genauigkeitsverlust
+Problem 2.) Um wieviel muss ich zoomen? Wie berechne ich das?
+Idee 2 ausgedacht</t>
+  </si>
+  <si>
+    <t>1.) Versucht "Zeichne Polygone, lass Löcher ungeberührt" zu lösen (schreckliche Performance, da jeder Pixel einzeln auf isPartOfPolygon getestet und gezeichnet wird -&gt; nicht benutzbar)
+2.) Großes Problem identifiziert: OSM Zoom und GoogleMap Zoom sind
+nicht identisch. Wie macht man beide kompatibel?</t>
+  </si>
+  <si>
+    <t>Idee 2:
+Lade Bild aus google-Maps(mit zoom, long, lat). Berechne BoundingBox dieses Bildes. Dann lade Osm mit der gleichen Boundingbox herunter.</t>
+  </si>
+  <si>
+    <t>Quelle für Idee 1 (Zoom):
+https://stackoverflow.com/a/37121993/8862202
+Idee 2:
+(Berechne Bbox von gmaps image):
+https://gis.stackexchange.com/questions/46729/corner-coordinates-of-google-static-map-tile
+(Laden von OSM mit bbox): http://wiki.openstreetmap.org/wiki/Downloading_data</t>
+  </si>
+  <si>
+    <t>Quelle für Idee 1 (Zoom):
+https://stackoverflow.com/a/37121993/8862202
+Idee 2:
+Lade Bild aus google-Maps(mit zoom, long, lat). Berechne BoundingBox dieses Bildes. Dann lade Osm mit der gleichen Boundingbox herunter.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,6 +726,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -748,13 +783,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -812,9 +848,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Ausgabe" xfId="3" builtinId="21"/>
+    <cellStyle name="Erklärender Text" xfId="4" builtinId="53"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1097,9 +1137,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,25 +1389,35 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43087</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43088</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="9">
+        <v>8</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>47</v>
+      <c r="D17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1411,7 +1461,7 @@
       <c r="D22" s="2"/>
       <c r="G22">
         <f t="shared" ref="G22" si="1">SUM(B16:B22)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2265,10 +2315,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F14" r:id="rId1"/>
-    <hyperlink ref="E17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2276,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,9 +2366,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="76.5" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="21"/>
     </row>

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Tag</t>
   </si>
@@ -574,15 +574,34 @@
     <t>Quelle für Idee 1 (Zoom):
 https://stackoverflow.com/a/37121993/8862202
 Idee 2:
-(Berechne Bbox von gmaps image):
-https://gis.stackexchange.com/questions/46729/corner-coordinates-of-google-static-map-tile
-(Laden von OSM mit bbox): http://wiki.openstreetmap.org/wiki/Downloading_data</t>
+Lade Bild aus google-Maps(mit zoom, long, lat). Berechne BoundingBox dieses Bildes. Dann lade Osm mit der gleichen Boundingbox herunter.</t>
+  </si>
+  <si>
+    <t>Vortrag über Skynet: (Der Kerl hat nicht so Ahnung)
+https://2016.stateofthemap.us/skynet/</t>
+  </si>
+  <si>
+    <t>Proposal angefangen</t>
   </si>
   <si>
     <t>Quelle für Idee 1 (Zoom):
 https://stackoverflow.com/a/37121993/8862202
 Idee 2:
-Lade Bild aus google-Maps(mit zoom, long, lat). Berechne BoundingBox dieses Bildes. Dann lade Osm mit der gleichen Boundingbox herunter.</t>
+(Berechne Bbox von gmaps image):
+https://gis.stackexchange.com/questions/46729/corner-coordinates-of-google-static-map-tile
+(Laden von OSM mit bbox): http://wiki.openstreetmap.org/wiki/Downloading_data
+http://api.openstreetmap.org/api/0.6/map?bbox=11.54,48.14,11.543,48.145</t>
+  </si>
+  <si>
+    <t>Implementierung Idee 2:
+BoundingBox von gegebenem Google Satelliten-Bild bestimmen</t>
+  </si>
+  <si>
+    <t>Input: zoom, lat, long, width, height
+Output: left, bottom, right, top</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/12507274/how-to-get-bounds-of-a-google-static-map</t>
   </si>
 </sst>
 </file>
@@ -790,7 +809,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -851,6 +870,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Ausgabe" xfId="3" builtinId="21"/>
@@ -1137,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
@@ -1403,7 +1426,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43088</v>
       </c>
@@ -1417,7 +1440,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1464,21 +1487,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43094</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43095</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1521,7 +1560,7 @@
       <c r="D29" s="2"/>
       <c r="G29">
         <f t="shared" ref="G29" si="2">SUM(B23:B29)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2325,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2371,7 +2410,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="21"/>
     </row>

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Tag</t>
   </si>
@@ -603,11 +603,30 @@
   <si>
     <t>https://stackoverflow.com/questions/12507274/how-to-get-bounds-of-a-google-static-map</t>
   </si>
+  <si>
+    <t>Versucht Image Segmentation Model lauffähig zu machen</t>
+  </si>
+  <si>
+    <t>geht nicht</t>
+  </si>
+  <si>
+    <t>Verschiedene Image segmenter angeschaut und versucht
+sie zu benutzen</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://github.com/arahusky/Tensorflow-Segmentation/tree/master/imgaug/old_version</t>
+  </si>
+  <si>
+    <t>Image Augmenter für das Verändern der Images fürs Training</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
@@ -809,7 +828,7 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -874,6 +893,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Ausgabe" xfId="3" builtinId="21"/>
@@ -1160,9 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,29 +1596,47 @@
       <c r="C30" s="4"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43102</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="9">
+        <v>6</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43103</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="9">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43104</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1620,7 +1663,7 @@
       <c r="D36" s="2"/>
       <c r="G36">
         <f t="shared" ref="G36" si="3">SUM(B30:B36)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2354,9 +2397,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F14" r:id="rId1"/>
+    <hyperlink ref="D33" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2364,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Tag</t>
   </si>
@@ -621,6 +621,49 @@
   </si>
   <si>
     <t>Image Augmenter für das Verändern der Images fürs Training</t>
+  </si>
+  <si>
+    <t>Klassenhäufigkeiten berechnen von möglichst vielen Bildern
+dann diese nutzen um class-weights an fitmodel zu übergeben</t>
+  </si>
+  <si>
+    <t>1.) Image Loader gebaut, der Daten bei Bedarf aus gespeicherten
+Coords aus einem json von google static maps nachläd
+2.) Unet Model mit geladenen Daten gefüttert -&gt; Problem: Un-
+gleichmäßige Klassenverteilung erzeugt falsche Predictions
+2.1) Class-weights gehen leider nicht mit 3d in keras</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unet Model mit geladenen Daten gefüttert -&gt; Problem:
+ALLES SCHWARZ (Background ist viel häufiger als Building)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://github.com/keras-team/keras/issues/3653</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://swarbrickjones.wordpress.com/2017/03/28/cross-entropy-and-training-test-class-imbalance/
+2.1 ValueError: `class_weight` not supported for 3+ dimensional targets.
+https://datascience.stackexchange.com/questions/13490/how-to-set-class-weights-for-imbalanced-classes-in-keras
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -630,7 +673,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +811,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1185,9 +1236,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,17 +1693,28 @@
       <c r="A34" s="1">
         <v>43105</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="189" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43106</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
+      <c r="B35" s="9">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1663,7 +1725,7 @@
       <c r="D36" s="2"/>
       <c r="G36">
         <f t="shared" ref="G36" si="3">SUM(B30:B36)</f>
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2408,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/Masterarbeit Plan.xlsx
+++ b/Masterarbeit Plan.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB4DD2AB-9C9F-4ECB-AAC2-CE10D79F0F70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="185">
   <si>
     <t>Tag</t>
   </si>
@@ -516,16 +517,7 @@
     <t xml:space="preserve">4) Training und Evaluation implementieren mit TF/Keras/?? </t>
   </si>
   <si>
-    <t>  </t>
-  </si>
-  <si>
-    <t>   </t>
-  </si>
-  <si>
     <t>Step</t>
-  </si>
-  <si>
-    <t>Fertgestellt Am</t>
   </si>
   <si>
     <t>Erhalten Am</t>
@@ -568,12 +560,6 @@
   </si>
   <si>
     <t>Idee 2:
-Lade Bild aus google-Maps(mit zoom, long, lat). Berechne BoundingBox dieses Bildes. Dann lade Osm mit der gleichen Boundingbox herunter.</t>
-  </si>
-  <si>
-    <t>Quelle für Idee 1 (Zoom):
-https://stackoverflow.com/a/37121993/8862202
-Idee 2:
 Lade Bild aus google-Maps(mit zoom, long, lat). Berechne BoundingBox dieses Bildes. Dann lade Osm mit der gleichen Boundingbox herunter.</t>
   </si>
   <si>
@@ -665,15 +651,680 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Leider gleiches Problem</t>
+  </si>
+  <si>
+    <t>1.) Genaue Fehlersuche
+2.) Klären.
+Zählt der Hintergrund auch als Klasse?</t>
+  </si>
+  <si>
+    <t>1.) Unet mit mehreren Bildern getestet (Nur Gebäuden Labels)
+2.) Wieso stehen im Unet zwei verschiedene Outputdimensionen (self.n_cls + 1 beim Batchgenerator)
+3.) Alexander Mail</t>
+  </si>
+  <si>
+    <t>1.) Paper ausdrucken, lesen und Motivation scheiben
+2.) Webcrawl tips lesen und zusammenfassen
+3.) Osm Zugriffe loggen
+4.) Unet Fehler finden &amp; rumspielen</t>
+  </si>
+  <si>
+    <t>Diese todos sollen zeitnah abgearbeitet werden</t>
+  </si>
+  <si>
+    <t>Alexander Mail, Todos extrahiert:
+1.) Paper ausdrucken, lesen und Motivation scheiben
+2.) Webcrawl tips lesen und zusammenfassen
+3.) Osm Zugriffe loggen
+4.) Unet Fehler finden &amp; rumspielen
+5.) ConvNet Baseline Modell bauen</t>
+  </si>
+  <si>
+    <t>Kein Fehler, Problem mit konnte gelöst werden durch:
+- erhöhen der Learningrate
+-erhöhen der epoch_size auf 200 Bilder
+- erweitern des Stadt-Radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weitere Ideen: 1.) Besseres Shuffeln der Bilder (Nicht immer in gleicher Reihenfolge durchlaufen)
+2.) Google Schriftzug iwie entfernen
+3.) Zufallszahlen besser verstreut ziehen (Manchmal werden zwei fast identische Bilder nacheinander geladen)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.)  Unet Fehler finden &amp; rumspielen
+2.) Der Map-Loader speichert/läd jetzt auch OSM-Files 
+(Ein Osm-File für ein GoogleMap-PNG-File)
+</t>
+  </si>
+  <si>
+    <t>Proposal schreiben</t>
+  </si>
+  <si>
+    <t>Latex Bug gefixt</t>
+  </si>
+  <si>
+    <t>Hauptquellen ins bibtex eingefügt</t>
+  </si>
+  <si>
+    <t>hauptstruktur geschrieben</t>
+  </si>
+  <si>
+    <t>Großes Problem "Polygone die teils in Area of Interest teils
+außerhalb liegen"
+Ideen gelesen
+rumgespielt mit tool osgeo, ogr</t>
+  </si>
+  <si>
+    <t>Fortführung der Recherche</t>
+  </si>
+  <si>
+    <t>Verschiedene Fälle von Polygonlagen analysiert:
+- Eine Hälfte des Polygons überlappt an einer Seite der bbox
+- Ein Polygon geht komplett durch die bbox durch und auf der
+anderen Seite wieder raus (Fluß!)
+- die ganze bbox wird von einem polygon geschluckt ( großer wald zb)
+- besonders nervig: das ganze noch mit Löchern</t>
+  </si>
+  <si>
+    <t>Fallunterscheidung und Schnittpunktberechnung scheint extrem
+aufwendig zu sein</t>
+  </si>
+  <si>
+    <t>Idee zu Problem: Intersection von Polygon und bbox mit tool
+schnell berechnen lassen!
+Tool/Framework suchen!</t>
+  </si>
+  <si>
+    <t>Mehrere Tools die in Frage kommen (ogrm, shapely)
+Shapely sieht ganz vielversprechend aus!
+Beispiel code für Intersection von 2 Kreisen getestet und ins
+Repo</t>
+  </si>
+  <si>
+    <t>Neue Strategie fürs nächste mal:
+- Osm Polygone erst mal in long/lat-coords lassen
+- Polygone lesen und  in  Polygonobjekte überführen (ebenfalls long/lat coords)
+- Zweites Polygon p_bbox erzeugen
+- Intersection I von p_bbox und Polygonen (Fluss z.B.)
+- I in Pixelcoords transformieren ( Jetzt sollten alle 
+Lang/Lots innerhalb der Bbox liegen! Überprüfen!)
+- Intersection plotten und Resultat checken</t>
+  </si>
+  <si>
+    <t>Paper Review und Proposal schreiben</t>
+  </si>
+  <si>
+    <t>Paper Review und Proposal schreiben, Arbeitsplanung</t>
+  </si>
+  <si>
+    <t>Hinzufügen weiterer Straßenarten und Anpassen der Breite
+Hinzufügen der Fluss-Features (wenn way) zum 
+Maploader-Code + Proposal Intro</t>
+  </si>
+  <si>
+    <t>Straßen ways in Polygone tranformiert und als
+Labels hinzugefügt</t>
+  </si>
+  <si>
+    <t>Erstellen der Gliederung (Vorversion)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model für OSM Daten umgebaut (Klassen hinzugefügt)
+Model Training getestet (200 Images, 50 Epochs, LR 0.01)
+Fixes in Polygonextraktion
+</t>
+  </si>
+  <si>
+    <t>Kleine Codeänderungen für Multi-Device-Developement</t>
+  </si>
+  <si>
+    <t>Fehlersuche in Bbox Berechnung</t>
+  </si>
+  <si>
+    <t>Bbox-Fehler behoben
+Generierung von Testdaten mit Width!=Size möglich
+Google Label können nun variabel gecuttet werden</t>
+  </si>
+  <si>
+    <t>LR natürlich viel zu hoch und Anzahl der Samples zu klein,
+war eher als grundlegender Test gedacht</t>
+  </si>
+  <si>
+    <t>Noch mit inhaltichen Dingen füllen (Was soll rein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testdaten-Generierung auf DB umstellen
+</t>
+  </si>
+  <si>
+    <t>Neues Paper bekommen auf ResearchGate!
+"Semantic Segmentation of Aerial Images with Shuffling Convolutional Neural Networks"</t>
+  </si>
+  <si>
+    <t>Womöglich sehr interessant für Pretraining!
+Vaihingen Dataset:
+http://www2.isprs.org/commissions/comm3/wg4/2d-sem-label-vaihingen.html
+Potsdam Dataset:
+http://www2.isprs.org/commissions/comm3/wg4/2d-sem-label-potsdam.html</t>
+  </si>
+  <si>
+    <t>Ansatz prüfen und Code suchen!
+Zusammenfassen (Shuffling Ansatz vor allem)!</t>
+  </si>
+  <si>
+    <t>python &lt;&gt; psycopg2
+psycopg2 &lt;&gt; postgresql/postgis
+postgre sql installieren
+user erzeugen und mit daten füllen
+osm daten in postgis db füllen (z.B. mit osm2pgsql)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wiki.openstreetmap.org/wiki/PostGIS
+http://skipperkongen.dk/2011/01/20/how-to-import-open-street-map-data-into-postgresql/
+Gibt anscheinend Probleme mit Relationen in osm2pgsql 
+"...will also apply to relations with type=multipolygon, type=boundary, or type=route; all other relations are ignored by osm2pgsql..."
+</t>
+  </si>
+  <si>
+    <t>Materialsuche für PostGre SQL + OSM + Python
+psycopg2 installiert (bei windows cygwin package)</t>
+  </si>
+  <si>
+    <t>Selects in Python implementieren
+Auslesen der Polygone von wkt zu Objekten</t>
+  </si>
+  <si>
+    <t>Hex wbt zu wkt umgewandelt!</t>
+  </si>
+  <si>
+    <t>klappt ganz okay</t>
+  </si>
+  <si>
+    <t>Intersection mit einer gegebenen BoundingBox testen.
+Zufällige LongLat aus der globalen BoundingBox in der alle Daten liegen auswürfeln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Python zu Postgis verbinden getestet.
+PostGis installiert
+Daten in postgis importiert von hotosm (shp-Files)
+und shp2pgsql (gui version in pgAdmin4/bin enthalten)</t>
+  </si>
+  <si>
+    <t>Erste Selects getestet auf importierten Datenbanken
+Bisherige Erklärungen und Logs zu DB-Tests ins Readme-md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgis läuft </t>
+  </si>
+  <si>
+    <t>ST_Intersection 
+ST_Buffer
+kleine Löcher in Straßen bleiben…</t>
+  </si>
+  <si>
+    <t>Update Todos</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Liste machen: Welche Models sollen genutzt werden</t>
+  </si>
+  <si>
+    <t>Theorieteil schreiben
+( Beschaffenheit der Daten, ConvNet Basics etc.)</t>
+  </si>
+  <si>
+    <t>Datengenerator fertig machen 
+(Gleichverteilte [bzgl. Der Featureklassen] Daten laden)</t>
+  </si>
+  <si>
+    <t>Dataset-Vergleichsstudie 
+(möglicherweise als Fokus in der Arbeit)
+Wo bestehen unterschiede (auch in qualität)?
+Was ist beim Rendern problematisch?
+Löcher in Straßen, Wieviele?  Löcher evtl als extra Klasse.</t>
+  </si>
+  <si>
+    <t>Überlegen und Aufschreiben:
+ Welche Experimente sollen gemacht werden</t>
+  </si>
+  <si>
+    <t>~ 15 h</t>
+  </si>
+  <si>
+    <t>~ 60 h für 25 Seiten</t>
+  </si>
+  <si>
+    <t>Zeitschätzung</t>
+  </si>
+  <si>
+    <t>laufend dokumentieren</t>
+  </si>
+  <si>
+    <t>~ kA. -&gt; Daten erst
+anschauen</t>
+  </si>
+  <si>
+    <t>~ 15 h -&gt; nochmal
+die paper lesen</t>
+  </si>
+  <si>
+    <t>8-10 PP-Folien machen für kurzen Vortrag vor Arbeitsgruppe
+(Soll meine Arbeit meinen Plan kurzer Ansatz etc. beinhalten)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>fertig</t>
+  </si>
+  <si>
+    <t>unbearbeitet</t>
+  </si>
+  <si>
+    <t>1.) Anteil Featureklassen bestimmen (https://postgis.net/docs/ST_Area.html)
+2.) zum testen: Für jedes bild ausgeben: 
+20 % Wald, 40 % Gebäude, 20 % Strasse, 20 % Unclassified
+3.) Summe Bilden beim Zufälligen Laden (Durchschnitt bilden dann)
+4.) Ansatz zum gleichverteilen Laden überlegen und implementieren</t>
+  </si>
+  <si>
+    <t>Vaihingen/Potsdam Dataset untersuchen und integrieren
+ (Autoren Marmanis et al.
+Anschreiben falls nötig - longlat bbox wäre nötig)</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.) Straßen-Löcher behoben (Bug in opencv-Funktion) Keine Löcher mehr
+2.) Manuelles Labelling vgl. zu OSM wird gut im Paper </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Learning Aerial Image Segmentation from Online Maps"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> behandelt</t>
+    </r>
+  </si>
+  <si>
+    <t>Anteil unclassified ist relativ hoch</t>
+  </si>
+  <si>
+    <t>17.04.18 vormerken für vorraussichtliches Treffen mit der Arbeitsgruppe</t>
+  </si>
+  <si>
+    <t>1.) Dataset geladen (tif-files)
+2.) Versuchen Coords zu extrahieren
+3.) Coords sind nicht da, daher einfach Bild+Groundtruth 
+4.) Loader gebaut</t>
+  </si>
+  <si>
+    <t>Idee 1:
+Lade Bild aus google-Maps(mit zoom, long, lat). Berechne BoundingBox dieses Bildes. Dann lade Osm mit der gleichen Boundingbox herunter.</t>
+  </si>
+  <si>
+    <t>Semantic Segmentation Models in TF nachimplementieren
+ https://www.cityscapes-dataset.com/benchmarks/#scene-labeling-task</t>
+  </si>
+  <si>
+    <t>Wenn Dataset bessere Quali: Vorgehen genau dokumentieren und in 
+Latex pushen</t>
+  </si>
+  <si>
+    <t>Anteil Unclassified deutlich reduzieren:
+- Residential Area als zusätzliches Feature (landuse=residential)
+- Feature-Distrib nach dem Färben berechnen (nicht mehr in PGis)
+- iwie versuchen rauszufinden was den größten Teil der unklassifizierten Pixel ausmacht</t>
+  </si>
+  <si>
+    <t>Meer/Ozean aus Hotosm ziehen ( place = sea, place =ocean)</t>
+  </si>
+  <si>
+    <t>Wenn SegModels fertig, sofort Testversuche machen!</t>
+  </si>
+  <si>
+    <t>~ 2h (Wenn möglich)</t>
+  </si>
+  <si>
+    <t>~ Tage/Nächte parallel</t>
+  </si>
+  <si>
+    <t>~ 15h</t>
+  </si>
+  <si>
+    <t>~ pro Model 1 Tag mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~ 4h </t>
+  </si>
+  <si>
+    <t>~ 10 h (Materialauswahl,
+Folien gestalten,
+Grafiken bauen)</t>
+  </si>
+  <si>
+    <t>1.) Python funktion schreiben zum manuellen Auszählen des Feature Verteilung [1 : 2%, 2: 20 %, 3: 20 % ...]
+2.) Residential Area einfügen und kleine Statistik machen wieviel unclass noch da ist</t>
+  </si>
+  <si>
+    <t>1.) Funktioniert doch sehr schnell
+2.) Statistik: Immer noch 30 % unlabelled (größte klasse), Residential als
+zweitgrößte</t>
+  </si>
+  <si>
+    <t>Vortrag: Andreas H.:  
+Ansätze aus dem Bereich "weakly labeled data" suchen, die eventuell passen</t>
+  </si>
+  <si>
+    <t>Vortrag: Daniel S.:   
+Konzentrieren auf Bilder mit wenig "Other" -&gt; Task
+einfacher machen</t>
+  </si>
+  <si>
+    <t>Vortrag:  Martin: 
+Evaluationsszenario speziell für Städte mit gut
+gelabelten Daten</t>
+  </si>
+  <si>
+    <t>Vortrag Alex:
+ Beim nächsten Mal mit einer guten Beispielfolie beginnen!</t>
+  </si>
+  <si>
+    <t>Vortrag:  Daniel S.: 
+Trainieren auf Flüssen mit bekannter Breite und
+qualitativ auswerten und ggf. klassifikator nutzen um andere Bilder zu
+labeln.</t>
+  </si>
+  <si>
+    <t>1.) Angefangen in Latex das Procedere zu dokumentieren</t>
+  </si>
+  <si>
+    <t>1.) Ranking Scene Labeling Task
+ https://www.cityscapes-dataset.com/benchmarks/#scene-labeling-task
+2.) Model_list im git aktuell halten!
+3.) Code umschreiben in Tensorflow</t>
+  </si>
+  <si>
+    <t>1.) Bbox von diesen Städten (Einwohnerzahl&gt;1 Mio) manuell ermitteln
+2.) Bbox dann bei Hotosm-export eingeben und laden
+3.) Bilder laden mit other filter &lt;20%</t>
+  </si>
+  <si>
+    <t>VERSCHIEDENE DATASETS ERZEUGEN
+ (DE_ONLY, EU_ONLY, BIGCITY_GLOBAL,...)</t>
+  </si>
+  <si>
+    <t>METHODE um DATASETS OHNE POSTGIS ZU SPEICHERN EINBAUEN 
+(flag bei get_sample() einbauen postgis/true/false!)</t>
+  </si>
+  <si>
+    <t>GLIEDERUNG AKTUALISIEREN UND ALEXANDER SCHICKEN</t>
+  </si>
+  <si>
+    <t>ALEXANDER MAIL: KlassenImbalance zugunsten von Wohngebieten -
+Lösungsansatz: Weighted Cost Function</t>
+  </si>
+  <si>
+    <t>ALEXANDER MAIL !! Umbau von Baselines für OSM
+Kartenausschnitte jeweils anpassen</t>
+  </si>
+  <si>
+    <t>Master Anmeldung
+1.04.2018 - 28.09.2018</t>
+  </si>
+  <si>
+    <t>1.) Alte Punkte identifizieren
+2.) Wo kann man konkreter werden? Einbauen!</t>
+  </si>
+  <si>
+    <t>PROPOSAL AKTUALISIEREN UND ALEXANDER SCHICKEN</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Flüße machen zz einen so geringen Anteil an Labels aus, dass der Aufwand
+diese zu perfektionieren nicht gerechtfertigt wäre</t>
+  </si>
+  <si>
+    <t>1.) Eventuell interessant: Weakly- and Semi-Supervised Learning of a Deep Convolutional Network for Semantic Image Segmentation 
+https://arxiv.org/pdf/1502.02734.pdf
+2.) Idee von Alexander mit Weighted Cost Funktion vom 3.05.2018!</t>
+  </si>
+  <si>
+    <t>Getan mit filter aber problematisch, da Wohngebiete nun bevorzugt ausgewählt 
+werden. Siehe Alexander's Vorschlag vom 3.05 mit Weighted Cost Function</t>
+  </si>
+  <si>
+    <t>1.) Ein zuvor mit maybe_load_images() geladenes Dataset (mit Postgis groundtruth)
+kann mittels save_dataset_filesystem() gespeichert werden. Beim Training dann einfach
+im config-Objekt das flag load_from_db auf False setzen. Dann werden die groundtruth-
+Dateien aus dem Filesystem verwendet</t>
+  </si>
+  <si>
+    <t>Python: Funktion schreiben die bei bereits erstelltem Dataset Trainingslisten erstellt mit bsp (train=0.8, test=0.2) oder (train=0.7,test=0.15,val=0.15)</t>
+  </si>
+  <si>
+    <t>1.) PSPNET im Gange
+2.) ICNet fertig
+3.) SegNet fertig (Verbesserungen fuer Test und Inference noch nötig)</t>
+  </si>
+  <si>
+    <t>3 Datasets:
+- world_tiny2k (2k images insg)
+- de_top14 (7k images insg)
+- eu_top25_exde (16k images insg)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 Bilder erzeugen zum Evaluieren vom Predictions
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Satellitenbild|Groundtruth|Prediction|Certainity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Certainity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Layer vor Argmax bei dem jede Outputwskt des höchsten Labels 
+mit Farbe (z.B. von schwarz bis weiß) gefüllt wird.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Paper hierzu:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.semanticscholar.org/paper/A-Baseline-for-Detecting-Misclassified-and-Examples-Hendrycks-Gimpel/0b4ab3171cb1d22a2f91e53796c49bbaa833f478</t>
+    </r>
+  </si>
+  <si>
+    <t>Hinweis: Rechen/Speicherintensive Jobs auf Ungoliant laufen lassen
+ (mittels -w Argument bei slurm)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Train, Test, Val </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>von allen Datasets erzeugen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Wahrscheinlichkeitsverteilung </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>der Klassen jeweils berechnen!</t>
+    </r>
+  </si>
+  <si>
+    <t>1.) Testdaten mit Meer (334qm km) aus Hotosm ziehen (Mit Place diesmal) Schaue ob Meer-Polygon dabei ist
+2.) Nirgend ein Place = sea/ocean bei export 
+https://export.hotosm.org/de/v3/exports/90022cf0-b795-4044-9a27-45282cd0d361
+Auch natural=water nimmt hier nur 5% der Fläche ein
+-&gt; Scheint nicht möglich mit HotOsm 
+-&gt; Küstenregionen meiden</t>
+  </si>
+  <si>
+    <t>Anfangen Stichpunkte für Related Work zu schreiben:
+Paper x ist macht y. Das ist wichtig für die Thesis denn</t>
+  </si>
+  <si>
+    <t>Bisherige Arbeit zu
+- Experimenten mit ConvNet an Dataset
+- Versuche mit Klassengewichten
+- Dataseterzeugung
+niederschreiben</t>
+  </si>
+  <si>
+    <t>Pretrained gegen untrained weights
+Unterschiedliche Trainingsansätze machen und Ergebnisse festhalten!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) Gefunden: https://github.com/keras-team/keras/issues/6261
+2.) Einbauen und testen (Mit welchen Gewichten?)
+3.) Ansatz: Klassenwsk : ganz okay manchmal
+4.) Ansatz: Inverse Klassenwsk. sehr schlecht
+5.) Ansatz: SegNet Paper Ansatz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1 </t>
+  </si>
+  <si>
+    <t>File geschrieben und erste Paper hinzugefügt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEEPLABV3+ mit OSM Daten trainieren</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+OSM Daten für Deeplabv3+ aufbereiten. Dazu ein Skript analog zu 
+Tensorflow_Models\research\deeplab\datasets\build_cityscapes_data.py bauen.
+Dann Netz darauf trainieren</t>
+    </r>
+  </si>
+  <si>
+    <t>1.) Baue build_osm_data.py und teste es. Eventuell statt "osm" 3 Skripte für
+world_tiny2k
+de_top14
+eu_top25_exde bauen.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd/\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,13 +1452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -823,8 +1467,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,8 +1530,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -871,15 +1559,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -928,37 +1645,176 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Ausgabe" xfId="3" builtinId="21"/>
     <cellStyle name="Erklärender Text" xfId="4" builtinId="53"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1233,12 +2089,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,10 +2352,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="165" x14ac:dyDescent="0.25">
@@ -1510,13 +2366,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1571,11 +2427,11 @@
         <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="26" t="s">
-        <v>52</v>
+      <c r="E23" s="22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1586,13 +2442,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1655,10 +2511,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1669,10 +2525,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1683,10 +2539,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1707,13 +2563,13 @@
         <v>5</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1728,13 +2584,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43108</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
+      <c r="B37" s="9">
+        <v>3</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1768,13 +2633,20 @@
       <c r="C41" s="3"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43113</v>
       </c>
       <c r="B42" s="9"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
+      <c r="C42" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1785,7 +2657,7 @@
       <c r="D43" s="2"/>
       <c r="G43">
         <f t="shared" ref="G43" si="4">SUM(B37:B43)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1856,13 +2728,22 @@
       <c r="C51" s="3"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43123</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="2"/>
+      <c r="B52" s="9">
+        <v>6</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -1905,32 +2786,50 @@
       <c r="D57" s="2"/>
       <c r="G57">
         <f t="shared" ref="G57" si="6">SUM(B51:B57)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43129</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="2"/>
+      <c r="B58" s="9">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43130</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
+      <c r="B59" s="9">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43131</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="2"/>
+      <c r="B60" s="9">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -1965,16 +2864,22 @@
       <c r="D64" s="2"/>
       <c r="G64">
         <f t="shared" ref="G64" si="7">SUM(B58:B64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43136</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="2"/>
+      <c r="B65" s="9">
+        <v>7</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -1984,20 +2889,30 @@
       <c r="C66" s="3"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43138</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="2"/>
+      <c r="B67" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43139</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="3"/>
+      <c r="B68" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2025,16 +2940,25 @@
       <c r="D71" s="2"/>
       <c r="G71">
         <f t="shared" ref="G71" si="8">SUM(B65:B71)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43143</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="2"/>
+      <c r="B72" s="9">
+        <v>4</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -2044,12 +2968,16 @@
       <c r="C73" s="3"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43145</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="3"/>
+      <c r="B74" s="9">
+        <v>6</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2060,32 +2988,44 @@
       <c r="C75" s="3"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43147</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="3"/>
+      <c r="B76" s="9">
+        <v>8</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43148</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="3"/>
+      <c r="B77" s="9">
+        <v>8</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43149</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="3"/>
+      <c r="B78" s="9">
+        <v>10</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="G78">
         <f t="shared" ref="G78" si="9">SUM(B72:B78)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2112,13 +3052,22 @@
       <c r="C81" s="3"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43153</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="2"/>
+      <c r="B82" s="9">
+        <v>1</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -2127,6 +3076,7 @@
       <c r="B83" s="9"/>
       <c r="C83" s="3"/>
       <c r="D83" s="2"/>
+      <c r="E83" s="23"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -2135,77 +3085,136 @@
       <c r="B84" s="9"/>
       <c r="C84" s="3"/>
       <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E84" s="23"/>
+    </row>
+    <row r="85" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43156</v>
       </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="2"/>
+      <c r="B85" s="9">
+        <v>8</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="G85">
         <f t="shared" ref="G85" si="10">SUM(B79:B85)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43157</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="3"/>
+      <c r="B86" s="9">
+        <v>2</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="D86" s="2"/>
+      <c r="E86" s="23"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43158</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="3"/>
+      <c r="B87" s="9">
+        <v>6</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E87" s="23"/>
+    </row>
+    <row r="88" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43159</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="3"/>
+      <c r="B88" s="9">
+        <v>8</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="D88" s="2"/>
+      <c r="E88" s="23"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43160</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="3"/>
+      <c r="B89" s="9">
+        <v>3</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E89" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43161</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="9">
+        <v>3</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43162</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="9">
+        <v>4</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43163</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="2"/>
+      <c r="B92" s="9">
+        <v>3</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>104</v>
+      </c>
       <c r="G92">
         <f t="shared" ref="G92" si="11">SUM(B86:B92)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2216,20 +3225,30 @@
       <c r="C93" s="3"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43165</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="2"/>
+      <c r="B94" s="9">
+        <v>6</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43166</v>
       </c>
-      <c r="B95" s="9"/>
-      <c r="C95" s="3"/>
+      <c r="B95" s="9">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2265,7 +3284,7 @@
       <c r="D99" s="2"/>
       <c r="G99">
         <f t="shared" ref="G99" si="12">SUM(B93:B99)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2288,8 +3307,12 @@
       <c r="A102" s="1">
         <v>43173</v>
       </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="3"/>
+      <c r="B102" s="9">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2325,7 +3348,7 @@
       <c r="D106" s="2"/>
       <c r="G106">
         <f>SUM(B100:B106)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2458,8 +3481,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1"/>
-    <hyperlink ref="D33" r:id="rId2"/>
+    <hyperlink ref="F14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -2467,11 +3490,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,398 +3505,851 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="67.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="48.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="F1" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="81" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="19">
+        <v>43277</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="19">
+        <v>43262</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="19">
+        <v>43262</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="19">
+        <v>43262</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="19">
+        <v>43262</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="19">
+        <v>43262</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="19">
+        <v>43262</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="19">
+        <v>43236</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="62.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="19">
+        <v>43223</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="106.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="19">
+        <v>43223</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="19">
+        <v>43223</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="19">
+        <v>43223</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="19">
+        <v>43223</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="19">
+        <v>43223</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="19">
+        <v>43223</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="19">
+        <v>43207</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="19">
+        <v>43207</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="19">
+        <v>43207</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="19">
+        <v>43207</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="19">
+        <v>43207</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="19">
+        <v>43186</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="19">
+        <v>43186</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="19">
+        <v>43186</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="19">
+        <v>43186</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="121.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="19">
+        <v>43186</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="19">
+        <v>43186</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="19">
+        <v>43172</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="19">
+        <v>43172</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="76.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="19">
+        <v>43172</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="19">
+        <v>43172</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="61.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="19">
+        <v>43172</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="19">
+        <v>43172</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="19">
+        <v>43087</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="19">
+    </row>
+    <row r="35" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="19">
         <v>43087</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="76.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" ht="48.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="D35" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="19">
         <v>43087</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" ht="48.75" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="D36" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="19">
         <v>43087</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="C18" s="21"/>
-    </row>
-    <row r="19" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="C19" s="21"/>
-    </row>
-    <row r="20" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="21"/>
-    </row>
-    <row r="22" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="19">
-        <v>43087</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C25" s="21"/>
-    </row>
-    <row r="26" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C29" s="21"/>
-    </row>
-    <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C30" s="21"/>
-    </row>
-    <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C31" s="21"/>
-    </row>
-    <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C32" s="21"/>
-    </row>
-    <row r="33" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C33" s="21"/>
-    </row>
-    <row r="34" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C34" s="21"/>
-    </row>
-    <row r="35" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C35" s="21"/>
-    </row>
-    <row r="36" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C36" s="21"/>
-    </row>
-    <row r="37" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C37" s="21"/>
-    </row>
-    <row r="38" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C38" s="21"/>
-    </row>
-    <row r="39" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C39" s="21"/>
-    </row>
-    <row r="40" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C40" s="21"/>
-    </row>
-    <row r="41" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C41" s="21"/>
-    </row>
-    <row r="42" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C42" s="21"/>
-    </row>
-    <row r="43" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C43" s="21"/>
-    </row>
-    <row r="44" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C44" s="21"/>
-    </row>
-    <row r="45" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C45" s="21"/>
-    </row>
-    <row r="46" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C46" s="21"/>
-    </row>
-    <row r="47" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C47" s="21"/>
-    </row>
-    <row r="48" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C48" s="21"/>
-    </row>
-    <row r="49" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C49" s="21"/>
-    </row>
-    <row r="50" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C50" s="21"/>
-    </row>
-    <row r="51" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C51" s="21"/>
-    </row>
-    <row r="52" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C52" s="21"/>
-    </row>
-    <row r="53" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C53" s="21"/>
-    </row>
-    <row r="54" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C54" s="21"/>
-    </row>
-    <row r="55" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C55" s="21"/>
-    </row>
-    <row r="56" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C56" s="21"/>
-    </row>
-    <row r="57" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C57" s="21"/>
-    </row>
-    <row r="58" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C58" s="21"/>
-    </row>
-    <row r="59" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C59" s="21"/>
-    </row>
-    <row r="60" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C60" s="21"/>
-    </row>
-    <row r="61" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C61" s="21"/>
-    </row>
-    <row r="62" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C62" s="21"/>
-    </row>
-    <row r="63" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C63" s="21"/>
-    </row>
-    <row r="64" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C64" s="21"/>
+      <c r="D37" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A38" s="26"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="28"/>
+    </row>
+    <row r="39" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="26"/>
+      <c r="C39" s="20"/>
+    </row>
+    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C40" s="20"/>
+    </row>
+    <row r="41" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C42" s="20"/>
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C43" s="20"/>
+      <c r="D43" s="28"/>
+    </row>
+    <row r="44" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C44" s="20"/>
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C45" s="20"/>
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C46" s="20"/>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C47" s="20"/>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C48" s="20"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C49" s="20"/>
+      <c r="D49" s="28"/>
+    </row>
+    <row r="50" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C50" s="20"/>
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C51" s="20"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C52" s="20"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C53" s="20"/>
+      <c r="D53" s="28"/>
+    </row>
+    <row r="54" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C54" s="20"/>
+      <c r="D54" s="28"/>
+    </row>
+    <row r="55" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C55" s="20"/>
+      <c r="D55" s="28"/>
+    </row>
+    <row r="56" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C56" s="20"/>
+      <c r="D56" s="28"/>
+    </row>
+    <row r="57" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C57" s="20"/>
+      <c r="D57" s="28"/>
+    </row>
+    <row r="58" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C58" s="20"/>
+      <c r="D58" s="28"/>
+    </row>
+    <row r="59" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C59" s="20"/>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C60" s="20"/>
+      <c r="D60" s="28"/>
+    </row>
+    <row r="61" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C61" s="20"/>
+    </row>
+    <row r="62" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C62" s="20"/>
+    </row>
+    <row r="63" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C63" s="20"/>
+    </row>
+    <row r="64" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C64" s="20"/>
     </row>
     <row r="65" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C65" s="21"/>
+      <c r="C65" s="20"/>
     </row>
     <row r="66" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C66" s="21"/>
+      <c r="C66" s="20"/>
     </row>
     <row r="67" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C67" s="21"/>
+      <c r="C67" s="20"/>
     </row>
     <row r="68" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C68" s="21"/>
+      <c r="C68" s="20"/>
     </row>
     <row r="69" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C69" s="21"/>
+      <c r="C69" s="20"/>
     </row>
     <row r="70" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C70" s="21"/>
+      <c r="C70" s="20"/>
     </row>
     <row r="71" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C71" s="21"/>
+      <c r="C71" s="20"/>
     </row>
     <row r="72" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C72" s="21"/>
+      <c r="C72" s="20"/>
     </row>
     <row r="73" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C73" s="21"/>
+      <c r="C73" s="20"/>
     </row>
     <row r="74" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C74" s="21"/>
+      <c r="C74" s="20"/>
     </row>
     <row r="75" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C75" s="21"/>
+      <c r="C75" s="20"/>
     </row>
     <row r="76" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C76" s="21"/>
+      <c r="C76" s="20"/>
     </row>
     <row r="77" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C77" s="21"/>
+      <c r="C77" s="20"/>
     </row>
     <row r="78" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C78" s="21"/>
+      <c r="C78" s="20"/>
     </row>
     <row r="79" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C79" s="21"/>
+      <c r="C79" s="20"/>
     </row>
     <row r="80" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C80" s="21"/>
+      <c r="C80" s="20"/>
     </row>
     <row r="81" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C81" s="21"/>
+      <c r="C81" s="20"/>
     </row>
     <row r="82" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C82" s="21"/>
+      <c r="C82" s="20"/>
     </row>
     <row r="83" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C83" s="21"/>
+      <c r="C83" s="20"/>
     </row>
     <row r="84" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C84" s="21"/>
+      <c r="C84" s="20"/>
     </row>
     <row r="85" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C85" s="21"/>
+      <c r="C85" s="20"/>
     </row>
     <row r="86" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C86" s="21"/>
+      <c r="C86" s="20"/>
     </row>
     <row r="87" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C87" s="21"/>
+      <c r="C87" s="20"/>
     </row>
     <row r="88" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C88" s="21"/>
+      <c r="C88" s="20"/>
     </row>
     <row r="89" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C89" s="21"/>
+      <c r="C89" s="20"/>
     </row>
     <row r="90" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C90" s="21"/>
+      <c r="C90" s="20"/>
     </row>
     <row r="91" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C91" s="21"/>
+      <c r="C91" s="20"/>
     </row>
     <row r="92" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C92" s="21"/>
+      <c r="C92" s="20"/>
     </row>
     <row r="93" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C93" s="21"/>
+      <c r="C93" s="20"/>
     </row>
     <row r="94" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C94" s="21"/>
+      <c r="C94" s="20"/>
     </row>
     <row r="95" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C95" s="21"/>
+      <c r="C95" s="20"/>
     </row>
     <row r="96" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C96" s="21"/>
+      <c r="C96" s="20"/>
     </row>
     <row r="97" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C97" s="21"/>
+      <c r="C97" s="20"/>
     </row>
     <row r="98" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C98" s="21"/>
+      <c r="C98" s="20"/>
     </row>
     <row r="99" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C99" s="21"/>
+      <c r="C99" s="20"/>
     </row>
     <row r="100" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C100" s="21"/>
+      <c r="C100" s="20"/>
     </row>
     <row r="101" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C101" s="21"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C102" s="21"/>
+      <c r="C102" s="20"/>
     </row>
     <row r="103" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C103" s="21"/>
+      <c r="C103" s="20"/>
     </row>
     <row r="104" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C104" s="21"/>
+      <c r="C104" s="20"/>
     </row>
     <row r="105" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C105" s="21"/>
+      <c r="C105" s="20"/>
     </row>
     <row r="106" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C106" s="21"/>
+      <c r="C106" s="20"/>
     </row>
     <row r="107" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C107" s="21"/>
+      <c r="C107" s="20"/>
     </row>
     <row r="108" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C108" s="21"/>
+      <c r="C108" s="20"/>
     </row>
     <row r="109" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C109" s="21"/>
+      <c r="C109" s="20"/>
+    </row>
+    <row r="110" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C110" s="20"/>
+    </row>
+    <row r="111" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C111" s="20"/>
     </row>
   </sheetData>
+  <sortState ref="A3:F37">
+    <sortCondition descending="1" ref="C3"/>
+  </sortState>
+  <conditionalFormatting sqref="D3:D130">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"fertig"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D53">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>"fertig"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D62">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D62">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"in_Arbeit"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D62">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"unbearbeitet"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D67">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Step">
+      <formula>NOT(ISERROR(SEARCH("Step",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"fertig"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>"fertig"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"in_Arbeit"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"unbearbeitet"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Step">
+      <formula>NOT(ISERROR(SEARCH("Step",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>